--- a/goldendata/Assigment3_E2/BitcountAndPSNRGraphsExercise2.xlsx
+++ b/goldendata/Assigment3_E2/BitcountAndPSNRGraphsExercise2.xlsx
@@ -9,17 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RD - GRAPHS" sheetId="1" r:id="rId1"/>
     <sheet name="RawData" sheetId="2" r:id="rId2"/>
     <sheet name="PSNR-GRAPHS" sheetId="4" r:id="rId3"/>
-    <sheet name="Constant qp BitCount" sheetId="6" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,15 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
-  <si>
-    <t>Costant Qp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Frame</t>
-  </si>
-  <si>
-    <t>Rate control</t>
   </si>
   <si>
     <t>Constant QP</t>
@@ -69,6 +59,12 @@
   </si>
   <si>
     <t>bps</t>
+  </si>
+  <si>
+    <t>RC3</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -344,10 +340,10 @@
                   <c:v>13302.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79718.428571428565</c:v>
+                  <c:v>81560.71428571429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213346.71428571429</c:v>
+                  <c:v>220630.19047619047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -362,10 +358,10 @@
                   <c:v>21.517742619047617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.841372333333332</c:v>
+                  <c:v>32.426199238095236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.380713714285704</c:v>
+                  <c:v>39.548047523809529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,13 +418,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21828.476190476191</c:v>
+                  <c:v>11943.190476190477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76768.619047619053</c:v>
+                  <c:v>68767.952380952382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>184917.04761904763</c:v>
+                  <c:v>190142.23809523811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,13 +436,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26.247897952380953</c:v>
+                  <c:v>19.713755666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.168051952380956</c:v>
+                  <c:v>36.651466285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.159323190476186</c:v>
+                  <c:v>42.458324285714284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,6 +451,87 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0CA1-440D-A08A-E2AA7D88F8EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RD - GRAPHS'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RC3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RD - GRAPHS'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12336.761904761905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72504.333333333328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205275.71428571429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RD - GRAPHS'!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.96633404761905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.766081714285718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.651430333333323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6533-4AC0-983A-21A9195C23B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -929,64 +1006,64 @@
                   <c:v>32.922676000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.755074</c:v>
+                  <c:v>34.446255000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.083424000000001</c:v>
+                  <c:v>34.772243000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.199699000000003</c:v>
+                  <c:v>35.180957999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.044659000000003</c:v>
+                  <c:v>35.254860000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.590591000000003</c:v>
+                  <c:v>35.075470000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.923457999999997</c:v>
+                  <c:v>35.319267000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.799461000000001</c:v>
+                  <c:v>20.453419</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.378185000000002</c:v>
+                  <c:v>28.630528999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.091048999999998</c:v>
+                  <c:v>33.728476999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.734969999999997</c:v>
+                  <c:v>35.681579999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.058281000000001</c:v>
+                  <c:v>36.381531000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.224747000000001</c:v>
+                  <c:v>36.802371999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.193446999999999</c:v>
+                  <c:v>37.012076999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.674053000000001</c:v>
+                  <c:v>20.808565000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.070366</c:v>
+                  <c:v>25.208953999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.523223999999999</c:v>
+                  <c:v>31.867751999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.397342999999999</c:v>
+                  <c:v>32.325004999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.81382</c:v>
+                  <c:v>32.867843999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.603405000000002</c:v>
+                  <c:v>33.129677000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.586886999999997</c:v>
+                  <c:v>33.080672999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,67 +1120,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>30.367435</c:v>
+                  <c:v>31.998732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.918883999999998</c:v>
+                  <c:v>33.66404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.631259999999997</c:v>
+                  <c:v>34.269011999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.500602999999998</c:v>
+                  <c:v>33.985416000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.389885</c:v>
+                  <c:v>34.765396000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.704239000000001</c:v>
+                  <c:v>34.167797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.220275999999998</c:v>
+                  <c:v>35.411414999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.440894999999998</c:v>
+                  <c:v>37.519649999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.930701999999997</c:v>
+                  <c:v>39.888767000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.279502999999998</c:v>
+                  <c:v>42.570678999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.126185999999997</c:v>
+                  <c:v>43.398173999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.311821000000002</c:v>
+                  <c:v>43.061348000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.268920999999999</c:v>
+                  <c:v>44.530689000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.669379999999997</c:v>
+                  <c:v>44.044246999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>32.999721999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.886490000000002</c:v>
+                  <c:v>34.283462999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.959510999999999</c:v>
+                  <c:v>34.402926999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.696449000000001</c:v>
+                  <c:v>33.734946999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.051009999999998</c:v>
+                  <c:v>34.009940999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.556015000000002</c:v>
+                  <c:v>34.118617999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.619903999999998</c:v>
+                  <c:v>32.855812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,6 +1240,123 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6A2C-4216-BE11-04657B9942C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PSNR-GRAPHS'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RC3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PSNR-GRAPHS'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>33.625340000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.232193000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.240195999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.036437999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.891540999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.121532000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.506691000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.519649999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.839129999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.97636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.372535999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.893104999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.424343</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.893970000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.999721999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.054993000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34.033225999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.989097999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.959816000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.829993999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.647841999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2891-4261-828E-AF1C450B0C52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1412,608 +1606,10 @@
           <c:yMode val="edge"/>
           <c:x val="0.25405457651126945"/>
           <c:y val="0.88175623496818645"/>
-          <c:w val="0.52575328083989503"/>
-          <c:h val="6.9103700046979716E-2"/>
+          <c:w val="0.35234312377619464"/>
+          <c:h val="6.6333031970556622E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CIF Bitcount per Frame with I_Period 21</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>RateControl</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Constant qp BitCount'!$P$3:$P$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>81524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83325</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81810</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81089</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82940</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>80535</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85675</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>81952</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82766</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>82222</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78872</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>80207</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71573</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>83747</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>82772</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>88240</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86108</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80786</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>81640</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>80726</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C7DA-46B0-B3A4-E291B99D355C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>QP-4</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Constant qp BitCount'!$E$3:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>141254</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>105334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98473</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91715</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97724</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>97256</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81433</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>215548</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62364</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46443</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40788</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40053</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39462</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37070</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>219219</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>122341</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>116305</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>112679</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>116700</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>117471</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>120901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C7DA-46B0-B3A4-E291B99D355C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="373196216"/>
-        <c:axId val="373193864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="373196216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Frame</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="373193864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="373193864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Bitcount</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="373196216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2121,46 +1717,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3219,522 +2775,19 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3769,16 +2822,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>131444</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>169544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3806,147 +2859,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>140969</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE3E938-8689-4F50-883F-C57EE6C3B466}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Block 8"/>
-      <sheetName val="Block 16"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4">
-            <v>4263450</v>
-          </cell>
-          <cell r="B4">
-            <v>37.906968200000001</v>
-          </cell>
-          <cell r="C4">
-            <v>3744411</v>
-          </cell>
-          <cell r="D4">
-            <v>38.142766599999995</v>
-          </cell>
-          <cell r="E4">
-            <v>3651043</v>
-          </cell>
-          <cell r="F4">
-            <v>37.690782999999996</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1254681</v>
-          </cell>
-          <cell r="B5">
-            <v>31.191080400000004</v>
-          </cell>
-          <cell r="C5">
-            <v>905625</v>
-          </cell>
-          <cell r="D5">
-            <v>31.409247700000002</v>
-          </cell>
-          <cell r="E5">
-            <v>807006</v>
-          </cell>
-          <cell r="F5">
-            <v>31.530800699999997</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>202445</v>
-          </cell>
-          <cell r="B6">
-            <v>26.649968999999999</v>
-          </cell>
-          <cell r="C6">
-            <v>164799</v>
-          </cell>
-          <cell r="D6">
-            <v>27.544206999999993</v>
-          </cell>
-          <cell r="E6">
-            <v>149099</v>
-          </cell>
-          <cell r="F6">
-            <v>27.967571499999998</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>38717</v>
-          </cell>
-          <cell r="B7">
-            <v>18.360233200000003</v>
-          </cell>
-          <cell r="C7">
-            <v>77027</v>
-          </cell>
-          <cell r="D7">
-            <v>19.3384827</v>
-          </cell>
-          <cell r="E7">
-            <v>87034</v>
-          </cell>
-          <cell r="F7">
-            <v>19.818847399999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4246,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,18 +3169,21 @@
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="H1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -4285,13 +3200,19 @@
         <v>21.517742619047617</v>
       </c>
       <c r="F2">
-        <v>21828.476190476191</v>
+        <v>11943.190476190477</v>
       </c>
       <c r="G2">
-        <v>26.247897952380953</v>
+        <v>19.713755666666671</v>
+      </c>
+      <c r="H2">
+        <v>12336.761904761905</v>
+      </c>
+      <c r="I2">
+        <v>19.96633404761905</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -4302,19 +3223,34 @@
         <v>27.994726428571425</v>
       </c>
       <c r="D3">
-        <v>79718.428571428565</v>
+        <v>81560.71428571429</v>
       </c>
       <c r="E3">
-        <v>33.841372333333332</v>
+        <v>32.426199238095236</v>
       </c>
       <c r="F3">
+        <v>68767.952380952382</v>
+      </c>
+      <c r="G3">
+        <v>36.651466285714285</v>
+      </c>
+      <c r="H3">
+        <v>72504.333333333328</v>
+      </c>
+      <c r="I3">
+        <v>36.766081714285718</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3">
         <v>76768.619047619053</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>36.168051952380956</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4325,19 +3261,25 @@
         <v>36.352430523809524</v>
       </c>
       <c r="D4">
-        <v>213346.71428571429</v>
+        <v>220630.19047619047</v>
       </c>
       <c r="E4">
-        <v>40.380713714285704</v>
+        <v>39.548047523809529</v>
       </c>
       <c r="F4">
-        <v>184917.04761904763</v>
+        <v>190142.23809523811</v>
       </c>
       <c r="G4">
-        <v>42.159323190476186</v>
+        <v>42.458324285714284</v>
+      </c>
+      <c r="H4">
+        <v>205275.71428571429</v>
+      </c>
+      <c r="I4">
+        <v>42.651430333333323</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4348,7 +3290,7 @@
         <v>38.988259857142857</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4359,12 +3301,12 @@
         <v>41.812136714285721</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4375,7 +3317,7 @@
         <v>19.136953714285717</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4386,7 +3328,7 @@
         <v>21.303869142857145</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4397,7 +3339,7 @@
         <v>25.610374857142865</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4408,7 +3350,7 @@
         <v>27.994726428571425</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4419,7 +3361,7 @@
         <v>36.352430523809524</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4430,7 +3372,7 @@
         <v>38.988259857142857</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4441,29 +3383,32 @@
         <v>41.812136714285721</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -4474,13 +3419,16 @@
         <v>7000000</v>
       </c>
       <c r="D19">
-        <v>106.02</v>
+        <v>124.86</v>
       </c>
       <c r="E19">
-        <v>220.56</v>
+        <v>237.83</v>
+      </c>
+      <c r="F19">
+        <v>175.63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -4491,13 +3439,16 @@
         <v>2400000</v>
       </c>
       <c r="D20">
-        <v>119.25</v>
+        <v>123.6</v>
       </c>
       <c r="E20">
-        <v>235.02</v>
+        <v>242.44</v>
+      </c>
+      <c r="F20">
+        <v>167.39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4508,13 +3459,16 @@
         <v>36000</v>
       </c>
       <c r="D21">
-        <v>113.93</v>
+        <v>110.27</v>
       </c>
       <c r="E21">
-        <v>236.18</v>
+        <v>233.97</v>
+      </c>
+      <c r="F21">
+        <v>217.85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4522,7 +3476,7 @@
         <v>112.18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4538,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AQ23"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AH22"/>
+      <selection activeCell="AO2" sqref="AO2:AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4550,12 +3504,12 @@
     <col min="3" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -4588,31 +3542,43 @@
         <v>9</v>
       </c>
       <c r="W1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" t="s">
         <v>4</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>8</v>
-      </c>
       <c r="AD1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG1" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>8</v>
+      <c r="AK1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4689,31 +3655,49 @@
         <v>32.922676000000003</v>
       </c>
       <c r="AB2">
-        <v>239492</v>
+        <v>237225</v>
       </c>
       <c r="AC2">
-        <v>39.864452</v>
+        <v>39.829174000000002</v>
       </c>
       <c r="AE2">
-        <v>13621</v>
+        <v>12686</v>
       </c>
       <c r="AF2">
-        <v>18.321864999999999</v>
+        <v>19.131360999999998</v>
       </c>
       <c r="AG2">
-        <v>59615</v>
+        <v>70733</v>
       </c>
       <c r="AH2">
-        <v>30.367435</v>
+        <v>31.998732</v>
       </c>
       <c r="AI2">
-        <v>174891</v>
+        <v>217757</v>
       </c>
       <c r="AJ2">
-        <v>37.327744000000003</v>
+        <v>39.163272999999997</v>
+      </c>
+      <c r="AL2">
+        <v>20951</v>
+      </c>
+      <c r="AM2">
+        <v>24.435507000000001</v>
+      </c>
+      <c r="AN2">
+        <v>84229</v>
+      </c>
+      <c r="AO2">
+        <v>33.625340000000001</v>
+      </c>
+      <c r="AP2">
+        <v>102758</v>
+      </c>
+      <c r="AQ2">
+        <v>34.102176999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4784,37 +3768,55 @@
         <v>22.573967</v>
       </c>
       <c r="Z3">
-        <v>79355</v>
+        <v>79430</v>
       </c>
       <c r="AA3">
-        <v>34.755074</v>
+        <v>34.446255000000001</v>
       </c>
       <c r="AB3">
-        <v>238881</v>
+        <v>231621</v>
       </c>
       <c r="AC3">
-        <v>40.929690999999998</v>
+        <v>40.867767000000001</v>
       </c>
       <c r="AE3">
-        <v>7108</v>
+        <v>12369</v>
       </c>
       <c r="AF3">
-        <v>21.794861000000001</v>
+        <v>19.387526000000001</v>
       </c>
       <c r="AG3">
-        <v>68844</v>
+        <v>63386</v>
       </c>
       <c r="AH3">
-        <v>33.918883999999998</v>
+        <v>33.66404</v>
       </c>
       <c r="AI3">
-        <v>188152</v>
+        <v>181238</v>
       </c>
       <c r="AJ3">
-        <v>39.991734000000001</v>
+        <v>39.900351999999998</v>
+      </c>
+      <c r="AL3">
+        <v>12369</v>
+      </c>
+      <c r="AM3">
+        <v>19.387526000000001</v>
+      </c>
+      <c r="AN3">
+        <v>64658</v>
+      </c>
+      <c r="AO3">
+        <v>34.232193000000002</v>
+      </c>
+      <c r="AP3">
+        <v>211922</v>
+      </c>
+      <c r="AQ3">
+        <v>39.397129</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4885,37 +3887,55 @@
         <v>22.485600000000002</v>
       </c>
       <c r="Z4">
-        <v>80385</v>
+        <v>83005</v>
       </c>
       <c r="AA4">
-        <v>35.083424000000001</v>
+        <v>34.772243000000003</v>
       </c>
       <c r="AB4">
-        <v>233275</v>
+        <v>233004</v>
       </c>
       <c r="AC4">
-        <v>40.641810999999997</v>
+        <v>41.006207000000003</v>
       </c>
       <c r="AE4">
-        <v>7179</v>
+        <v>12575</v>
       </c>
       <c r="AF4">
-        <v>22.131240999999999</v>
+        <v>19.797535</v>
       </c>
       <c r="AG4">
-        <v>74572</v>
+        <v>66294</v>
       </c>
       <c r="AH4">
-        <v>34.631259999999997</v>
+        <v>34.269011999999996</v>
       </c>
       <c r="AI4">
-        <v>193732</v>
+        <v>198078</v>
       </c>
       <c r="AJ4">
-        <v>40.277107000000001</v>
+        <v>40.414073999999999</v>
+      </c>
+      <c r="AL4">
+        <v>12575</v>
+      </c>
+      <c r="AM4">
+        <v>19.797535</v>
+      </c>
+      <c r="AN4">
+        <v>55577</v>
+      </c>
+      <c r="AO4">
+        <v>34.240195999999997</v>
+      </c>
+      <c r="AP4">
+        <v>177753</v>
+      </c>
+      <c r="AQ4">
+        <v>39.768462999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4986,37 +4006,55 @@
         <v>22.433809</v>
       </c>
       <c r="Z5">
-        <v>75914</v>
+        <v>80234</v>
       </c>
       <c r="AA5">
-        <v>35.199699000000003</v>
+        <v>35.180957999999997</v>
       </c>
       <c r="AB5">
-        <v>234785</v>
+        <v>236484</v>
       </c>
       <c r="AC5">
-        <v>41.214767000000002</v>
+        <v>41.843105000000001</v>
       </c>
       <c r="AE5">
-        <v>37563</v>
+        <v>11925</v>
       </c>
       <c r="AF5">
-        <v>27.276586999999999</v>
+        <v>19.552675000000001</v>
       </c>
       <c r="AG5">
-        <v>42831</v>
+        <v>46146</v>
       </c>
       <c r="AH5">
-        <v>34.500602999999998</v>
+        <v>33.985416000000001</v>
       </c>
       <c r="AI5">
-        <v>196493</v>
+        <v>163846</v>
       </c>
       <c r="AJ5">
-        <v>40.677055000000003</v>
+        <v>40.103157000000003</v>
+      </c>
+      <c r="AL5">
+        <v>11925</v>
+      </c>
+      <c r="AM5">
+        <v>19.552675000000001</v>
+      </c>
+      <c r="AN5">
+        <v>110073</v>
+      </c>
+      <c r="AO5">
+        <v>36.036437999999997</v>
+      </c>
+      <c r="AP5">
+        <v>235467</v>
+      </c>
+      <c r="AQ5">
+        <v>41.285418999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5087,37 +4125,55 @@
         <v>22.457798</v>
       </c>
       <c r="Z6">
-        <v>78739</v>
+        <v>80568</v>
       </c>
       <c r="AA6">
-        <v>35.044659000000003</v>
+        <v>35.254860000000001</v>
       </c>
       <c r="AB6">
-        <v>234766</v>
+        <v>237525</v>
       </c>
       <c r="AC6">
-        <v>40.747967000000003</v>
+        <v>41.549281999999998</v>
       </c>
       <c r="AE6">
-        <v>24423</v>
+        <v>12478</v>
       </c>
       <c r="AF6">
-        <v>28.924848999999998</v>
+        <v>19.048214000000002</v>
       </c>
       <c r="AG6">
-        <v>47883</v>
+        <v>71076</v>
       </c>
       <c r="AH6">
-        <v>33.389885</v>
+        <v>34.765396000000003</v>
       </c>
       <c r="AI6">
-        <v>173021</v>
+        <v>171986</v>
       </c>
       <c r="AJ6">
-        <v>39.966124999999998</v>
+        <v>39.873997000000003</v>
+      </c>
+      <c r="AL6">
+        <v>12478</v>
+      </c>
+      <c r="AM6">
+        <v>19.048214000000002</v>
+      </c>
+      <c r="AN6">
+        <v>52927</v>
+      </c>
+      <c r="AO6">
+        <v>34.891540999999997</v>
+      </c>
+      <c r="AP6">
+        <v>237655</v>
+      </c>
+      <c r="AQ6">
+        <v>41.569350999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5188,37 +4244,55 @@
         <v>22.425180000000001</v>
       </c>
       <c r="Z7">
-        <v>82386</v>
+        <v>80301</v>
       </c>
       <c r="AA7">
-        <v>34.590591000000003</v>
+        <v>35.075470000000003</v>
       </c>
       <c r="AB7">
-        <v>230567</v>
+        <v>234496</v>
       </c>
       <c r="AC7">
-        <v>40.536278000000003</v>
+        <v>41.149731000000003</v>
       </c>
       <c r="AE7">
-        <v>20708</v>
+        <v>11881</v>
       </c>
       <c r="AF7">
-        <v>27.292387000000002</v>
+        <v>18.731864999999999</v>
       </c>
       <c r="AG7">
-        <v>72702</v>
+        <v>48845</v>
       </c>
       <c r="AH7">
-        <v>33.704239000000001</v>
+        <v>34.167797</v>
       </c>
       <c r="AI7">
-        <v>173175</v>
+        <v>196930</v>
       </c>
       <c r="AJ7">
-        <v>39.5914</v>
+        <v>40.276733</v>
+      </c>
+      <c r="AL7">
+        <v>11881</v>
+      </c>
+      <c r="AM7">
+        <v>18.731864999999999</v>
+      </c>
+      <c r="AN7">
+        <v>105039</v>
+      </c>
+      <c r="AO7">
+        <v>36.121532000000002</v>
+      </c>
+      <c r="AP7">
+        <v>247648</v>
+      </c>
+      <c r="AQ7">
+        <v>41.458221000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5289,37 +4363,55 @@
         <v>22.261185000000001</v>
       </c>
       <c r="Z8">
-        <v>80236</v>
+        <v>78053</v>
       </c>
       <c r="AA8">
-        <v>34.923457999999997</v>
+        <v>35.319267000000004</v>
       </c>
       <c r="AB8">
-        <v>225121</v>
+        <v>232739</v>
       </c>
       <c r="AC8">
-        <v>41.280974999999998</v>
+        <v>42.175593999999997</v>
       </c>
       <c r="AE8">
-        <v>50483</v>
+        <v>12134</v>
       </c>
       <c r="AF8">
-        <v>30.784282999999999</v>
+        <v>18.125368000000002</v>
       </c>
       <c r="AG8">
-        <v>88142</v>
+        <v>86866</v>
       </c>
       <c r="AH8">
-        <v>35.220275999999998</v>
+        <v>35.411414999999998</v>
       </c>
       <c r="AI8">
-        <v>168772</v>
+        <v>173943</v>
       </c>
       <c r="AJ8">
-        <v>40.468418</v>
+        <v>40.782494</v>
+      </c>
+      <c r="AL8">
+        <v>12134</v>
+      </c>
+      <c r="AM8">
+        <v>18.125368000000002</v>
+      </c>
+      <c r="AN8">
+        <v>53573</v>
+      </c>
+      <c r="AO8">
+        <v>35.506691000000004</v>
+      </c>
+      <c r="AP8">
+        <v>211075</v>
+      </c>
+      <c r="AQ8">
+        <v>41.958126</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5390,16 +4482,16 @@
         <v>21.718384</v>
       </c>
       <c r="Z9">
-        <v>81368</v>
+        <v>85362</v>
       </c>
       <c r="AA9">
-        <v>30.799461000000001</v>
+        <v>20.453419</v>
       </c>
       <c r="AB9">
-        <v>241149</v>
+        <v>235185</v>
       </c>
       <c r="AC9">
-        <v>38.162227999999999</v>
+        <v>24.518744000000002</v>
       </c>
       <c r="AE9">
         <v>11589</v>
@@ -5408,19 +4500,37 @@
         <v>22.001522000000001</v>
       </c>
       <c r="AG9">
-        <v>74878</v>
+        <v>77495</v>
       </c>
       <c r="AH9">
-        <v>37.440894999999998</v>
+        <v>37.519649999999999</v>
       </c>
       <c r="AI9">
-        <v>211685</v>
+        <v>213105</v>
       </c>
       <c r="AJ9">
-        <v>44.857757999999997</v>
+        <v>45.155082999999998</v>
+      </c>
+      <c r="AL9">
+        <v>11589</v>
+      </c>
+      <c r="AM9">
+        <v>22.001522000000001</v>
+      </c>
+      <c r="AN9">
+        <v>77495</v>
+      </c>
+      <c r="AO9">
+        <v>37.519649999999999</v>
+      </c>
+      <c r="AP9">
+        <v>213105</v>
+      </c>
+      <c r="AQ9">
+        <v>45.155082999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5491,37 +4601,55 @@
         <v>21.973611999999999</v>
       </c>
       <c r="Z10">
-        <v>80704</v>
+        <v>80910</v>
       </c>
       <c r="AA10">
-        <v>33.378185000000002</v>
+        <v>28.630528999999999</v>
       </c>
       <c r="AB10">
-        <v>227200</v>
+        <v>239145</v>
       </c>
       <c r="AC10">
-        <v>41.439109999999999</v>
+        <v>39.853630000000003</v>
       </c>
       <c r="AE10">
-        <v>5266</v>
+        <v>11385</v>
       </c>
       <c r="AF10">
-        <v>24.328092999999999</v>
+        <v>21.999476999999999</v>
       </c>
       <c r="AG10">
-        <v>62875</v>
+        <v>65374</v>
       </c>
       <c r="AH10">
-        <v>38.930701999999997</v>
+        <v>39.888767000000001</v>
       </c>
       <c r="AI10">
-        <v>203479</v>
+        <v>238461</v>
       </c>
       <c r="AJ10">
-        <v>47.393822</v>
+        <v>47.835735</v>
+      </c>
+      <c r="AL10">
+        <v>11385</v>
+      </c>
+      <c r="AM10">
+        <v>21.999476999999999</v>
+      </c>
+      <c r="AN10">
+        <v>65089</v>
+      </c>
+      <c r="AO10">
+        <v>39.839129999999997</v>
+      </c>
+      <c r="AP10">
+        <v>183551</v>
+      </c>
+      <c r="AQ10">
+        <v>47.141219999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5592,37 +4720,55 @@
         <v>21.847237</v>
       </c>
       <c r="Z11">
-        <v>84128</v>
+        <v>81750</v>
       </c>
       <c r="AA11">
-        <v>35.091048999999998</v>
+        <v>33.728476999999998</v>
       </c>
       <c r="AB11">
-        <v>184535</v>
+        <v>235747</v>
       </c>
       <c r="AC11">
-        <v>42.280166999999999</v>
+        <v>42.332458000000003</v>
       </c>
       <c r="AE11">
-        <v>44707</v>
+        <v>11575</v>
       </c>
       <c r="AF11">
-        <v>32.850231000000001</v>
+        <v>21.995365</v>
       </c>
       <c r="AG11">
-        <v>78761</v>
+        <v>110922</v>
       </c>
       <c r="AH11">
-        <v>40.279502999999998</v>
+        <v>42.570678999999998</v>
       </c>
       <c r="AI11">
-        <v>173866</v>
+        <v>182897</v>
       </c>
       <c r="AJ11">
-        <v>47.811069000000003</v>
+        <v>48.042301000000002</v>
+      </c>
+      <c r="AL11">
+        <v>11575</v>
+      </c>
+      <c r="AM11">
+        <v>21.995365</v>
+      </c>
+      <c r="AN11">
+        <v>64017</v>
+      </c>
+      <c r="AO11">
+        <v>40.97636</v>
+      </c>
+      <c r="AP11">
+        <v>197804</v>
+      </c>
+      <c r="AQ11">
+        <v>47.837657999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5693,37 +4839,55 @@
         <v>22.064775000000001</v>
       </c>
       <c r="Z12">
-        <v>77388</v>
+        <v>82954</v>
       </c>
       <c r="AA12">
-        <v>35.734969999999997</v>
+        <v>35.681579999999997</v>
       </c>
       <c r="AB12">
-        <v>152539</v>
+        <v>171164</v>
       </c>
       <c r="AC12">
-        <v>42.493267000000003</v>
+        <v>42.655025000000002</v>
       </c>
       <c r="AE12">
-        <v>9246</v>
+        <v>11342</v>
       </c>
       <c r="AF12">
-        <v>31.192207</v>
+        <v>21.929424000000001</v>
       </c>
       <c r="AG12">
-        <v>101840</v>
+        <v>82331</v>
       </c>
       <c r="AH12">
-        <v>41.126185999999997</v>
+        <v>43.398173999999997</v>
       </c>
       <c r="AI12">
-        <v>166375</v>
+        <v>168112</v>
       </c>
       <c r="AJ12">
-        <v>47.984386000000001</v>
+        <v>48.149951999999999</v>
+      </c>
+      <c r="AL12">
+        <v>11342</v>
+      </c>
+      <c r="AM12">
+        <v>21.929424000000001</v>
+      </c>
+      <c r="AN12">
+        <v>81173</v>
+      </c>
+      <c r="AO12">
+        <v>42.372535999999997</v>
+      </c>
+      <c r="AP12">
+        <v>178317</v>
+      </c>
+      <c r="AQ12">
+        <v>48.076309000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5794,37 +4958,55 @@
         <v>22.267133999999999</v>
       </c>
       <c r="Z13">
-        <v>70651</v>
+        <v>78899</v>
       </c>
       <c r="AA13">
-        <v>36.058281000000001</v>
+        <v>36.381531000000003</v>
       </c>
       <c r="AB13">
-        <v>131986</v>
+        <v>156934</v>
       </c>
       <c r="AC13">
-        <v>42.687859000000003</v>
+        <v>42.909153000000003</v>
       </c>
       <c r="AE13">
-        <v>53647</v>
+        <v>11559</v>
       </c>
       <c r="AF13">
-        <v>35.207023999999997</v>
+        <v>22.00441</v>
       </c>
       <c r="AG13">
-        <v>104473</v>
+        <v>29879</v>
       </c>
       <c r="AH13">
-        <v>42.311821000000002</v>
+        <v>43.061348000000002</v>
       </c>
       <c r="AI13">
-        <v>159396</v>
+        <v>167428</v>
       </c>
       <c r="AJ13">
-        <v>48.006686999999999</v>
+        <v>48.157443999999998</v>
+      </c>
+      <c r="AL13">
+        <v>11559</v>
+      </c>
+      <c r="AM13">
+        <v>22.00441</v>
+      </c>
+      <c r="AN13">
+        <v>68635</v>
+      </c>
+      <c r="AO13">
+        <v>42.893104999999998</v>
+      </c>
+      <c r="AP13">
+        <v>170728</v>
+      </c>
+      <c r="AQ13">
+        <v>48.119762000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5895,37 +5077,55 @@
         <v>22.283674000000001</v>
       </c>
       <c r="Z14">
-        <v>72614</v>
+        <v>77323</v>
       </c>
       <c r="AA14">
-        <v>36.224747000000001</v>
+        <v>36.802371999999998</v>
       </c>
       <c r="AB14">
-        <v>123965</v>
+        <v>144270</v>
       </c>
       <c r="AC14">
-        <v>42.849421999999997</v>
+        <v>42.972408000000001</v>
       </c>
       <c r="AE14">
-        <v>27764</v>
+        <v>11342</v>
       </c>
       <c r="AF14">
-        <v>30.445623000000001</v>
+        <v>21.959574</v>
       </c>
       <c r="AG14">
-        <v>123532</v>
+        <v>121636</v>
       </c>
       <c r="AH14">
-        <v>45.268920999999999</v>
+        <v>44.530689000000002</v>
       </c>
       <c r="AI14">
-        <v>154253</v>
+        <v>162264</v>
       </c>
       <c r="AJ14">
-        <v>48.018566</v>
+        <v>48.190978999999999</v>
+      </c>
+      <c r="AL14">
+        <v>11342</v>
+      </c>
+      <c r="AM14">
+        <v>21.959574</v>
+      </c>
+      <c r="AN14">
+        <v>75102</v>
+      </c>
+      <c r="AO14">
+        <v>43.424343</v>
+      </c>
+      <c r="AP14">
+        <v>163487</v>
+      </c>
+      <c r="AQ14">
+        <v>48.160075999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5996,37 +5196,55 @@
         <v>22.356574999999999</v>
       </c>
       <c r="Z15">
-        <v>66604</v>
+        <v>77122</v>
       </c>
       <c r="AA15">
-        <v>36.193446999999999</v>
+        <v>37.012076999999998</v>
       </c>
       <c r="AB15">
-        <v>118492</v>
+        <v>136890</v>
       </c>
       <c r="AC15">
-        <v>42.856335000000001</v>
+        <v>42.982033000000001</v>
       </c>
       <c r="AE15">
-        <v>30218</v>
+        <v>11386</v>
       </c>
       <c r="AF15">
-        <v>34.456992999999997</v>
+        <v>22.026772000000001</v>
       </c>
       <c r="AG15">
-        <v>131350</v>
+        <v>36603</v>
       </c>
       <c r="AH15">
-        <v>46.669379999999997</v>
+        <v>44.044246999999999</v>
       </c>
       <c r="AI15">
-        <v>153694</v>
+        <v>160099</v>
       </c>
       <c r="AJ15">
-        <v>48.019069999999999</v>
+        <v>48.182819000000002</v>
+      </c>
+      <c r="AL15">
+        <v>11386</v>
+      </c>
+      <c r="AM15">
+        <v>22.026772000000001</v>
+      </c>
+      <c r="AN15">
+        <v>111965</v>
+      </c>
+      <c r="AO15">
+        <v>43.893970000000003</v>
+      </c>
+      <c r="AP15">
+        <v>161717</v>
+      </c>
+      <c r="AQ15">
+        <v>48.153824</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6097,16 +5315,16 @@
         <v>19.781756999999999</v>
       </c>
       <c r="Z16">
-        <v>81588</v>
+        <v>84442</v>
       </c>
       <c r="AA16">
-        <v>29.674053000000001</v>
+        <v>20.808565000000002</v>
       </c>
       <c r="AB16">
-        <v>239474</v>
+        <v>234608</v>
       </c>
       <c r="AC16">
-        <v>36.940193000000001</v>
+        <v>29.096529</v>
       </c>
       <c r="AE16">
         <v>12233</v>
@@ -6121,13 +5339,31 @@
         <v>32.999721999999998</v>
       </c>
       <c r="AI16">
-        <v>233705</v>
+        <v>238683</v>
       </c>
       <c r="AJ16">
-        <v>39.681648000000003</v>
+        <v>39.744903999999998</v>
+      </c>
+      <c r="AL16">
+        <v>12233</v>
+      </c>
+      <c r="AM16">
+        <v>17.986937999999999</v>
+      </c>
+      <c r="AN16">
+        <v>83187</v>
+      </c>
+      <c r="AO16">
+        <v>32.999721999999998</v>
+      </c>
+      <c r="AP16">
+        <v>238683</v>
+      </c>
+      <c r="AQ16">
+        <v>39.744903999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6198,37 +5434,55 @@
         <v>20.325771</v>
       </c>
       <c r="Z17">
-        <v>83447</v>
+        <v>81715</v>
       </c>
       <c r="AA17">
-        <v>32.070366</v>
+        <v>25.208953999999999</v>
       </c>
       <c r="AB17">
-        <v>235495</v>
+        <v>242663</v>
       </c>
       <c r="AC17">
-        <v>38.729202000000001</v>
+        <v>38.327057000000003</v>
       </c>
       <c r="AE17">
-        <v>6735</v>
+        <v>12365</v>
       </c>
       <c r="AF17">
-        <v>20.739386</v>
+        <v>19.018329999999999</v>
       </c>
       <c r="AG17">
-        <v>72229</v>
+        <v>75219</v>
       </c>
       <c r="AH17">
-        <v>33.886490000000002</v>
+        <v>34.283462999999998</v>
       </c>
       <c r="AI17">
-        <v>185645</v>
+        <v>198212</v>
       </c>
       <c r="AJ17">
-        <v>40.286808000000001</v>
+        <v>40.328831000000001</v>
+      </c>
+      <c r="AL17">
+        <v>12365</v>
+      </c>
+      <c r="AM17">
+        <v>19.018329999999999</v>
+      </c>
+      <c r="AN17">
+        <v>65418</v>
+      </c>
+      <c r="AO17">
+        <v>34.054993000000003</v>
+      </c>
+      <c r="AP17">
+        <v>245000</v>
+      </c>
+      <c r="AQ17">
+        <v>41.388458</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6299,37 +5553,55 @@
         <v>20.644192</v>
       </c>
       <c r="Z18">
-        <v>84603</v>
+        <v>84323</v>
       </c>
       <c r="AA18">
-        <v>32.523223999999999</v>
+        <v>31.867751999999999</v>
       </c>
       <c r="AB18">
-        <v>234828</v>
+        <v>237410</v>
       </c>
       <c r="AC18">
-        <v>39.018044000000003</v>
+        <v>39.124831999999998</v>
       </c>
       <c r="AE18">
-        <v>5598</v>
+        <v>11633</v>
       </c>
       <c r="AF18">
-        <v>21.812218000000001</v>
+        <v>17.842775</v>
       </c>
       <c r="AG18">
-        <v>72311</v>
+        <v>68519</v>
       </c>
       <c r="AH18">
-        <v>33.959510999999999</v>
+        <v>34.402926999999998</v>
       </c>
       <c r="AI18">
-        <v>202071</v>
+        <v>196005</v>
       </c>
       <c r="AJ18">
-        <v>39.660156000000001</v>
+        <v>39.779201999999998</v>
+      </c>
+      <c r="AL18">
+        <v>11633</v>
+      </c>
+      <c r="AM18">
+        <v>17.842775</v>
+      </c>
+      <c r="AN18">
+        <v>61722</v>
+      </c>
+      <c r="AO18">
+        <v>34.033225999999999</v>
+      </c>
+      <c r="AP18">
+        <v>254877</v>
+      </c>
+      <c r="AQ18">
+        <v>41.285881000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6400,37 +5672,55 @@
         <v>20.80517</v>
       </c>
       <c r="Z19">
-        <v>79536</v>
+        <v>81268</v>
       </c>
       <c r="AA19">
-        <v>32.397342999999999</v>
+        <v>32.325004999999997</v>
       </c>
       <c r="AB19">
-        <v>236954</v>
+        <v>237798</v>
       </c>
       <c r="AC19">
-        <v>38.815891000000001</v>
+        <v>39.259520999999999</v>
       </c>
       <c r="AE19">
-        <v>31544</v>
+        <v>12260</v>
       </c>
       <c r="AF19">
-        <v>25.874516</v>
+        <v>17.986751999999999</v>
       </c>
       <c r="AG19">
-        <v>51900</v>
+        <v>53929</v>
       </c>
       <c r="AH19">
-        <v>32.696449000000001</v>
+        <v>33.734946999999998</v>
       </c>
       <c r="AI19">
-        <v>193524</v>
+        <v>190367</v>
       </c>
       <c r="AJ19">
-        <v>39.107384000000003</v>
+        <v>39.727921000000002</v>
+      </c>
+      <c r="AL19">
+        <v>12260</v>
+      </c>
+      <c r="AM19">
+        <v>17.986751999999999</v>
+      </c>
+      <c r="AN19">
+        <v>58137</v>
+      </c>
+      <c r="AO19">
+        <v>33.989097999999998</v>
+      </c>
+      <c r="AP19">
+        <v>249275</v>
+      </c>
+      <c r="AQ19">
+        <v>41.246276999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6501,37 +5791,55 @@
         <v>20.688877000000002</v>
       </c>
       <c r="Z20">
-        <v>85019</v>
+        <v>83736</v>
       </c>
       <c r="AA20">
-        <v>32.81382</v>
+        <v>32.867843999999998</v>
       </c>
       <c r="AB20">
-        <v>237500</v>
+        <v>241014</v>
       </c>
       <c r="AC20">
-        <v>38.957946999999997</v>
+        <v>39.657803000000001</v>
       </c>
       <c r="AE20">
-        <v>14738</v>
+        <v>12106</v>
       </c>
       <c r="AF20">
-        <v>25.931823999999999</v>
+        <v>17.934822</v>
       </c>
       <c r="AG20">
-        <v>73809</v>
+        <v>67031</v>
       </c>
       <c r="AH20">
-        <v>33.051009999999998</v>
+        <v>34.009940999999998</v>
       </c>
       <c r="AI20">
-        <v>193819</v>
+        <v>188336</v>
       </c>
       <c r="AJ20">
-        <v>39.018146999999999</v>
+        <v>39.487659000000001</v>
+      </c>
+      <c r="AL20">
+        <v>12106</v>
+      </c>
+      <c r="AM20">
+        <v>17.934822</v>
+      </c>
+      <c r="AN20">
+        <v>59117</v>
+      </c>
+      <c r="AO20">
+        <v>33.959816000000004</v>
+      </c>
+      <c r="AP20">
+        <v>250904</v>
+      </c>
+      <c r="AQ20">
+        <v>41.207904999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6602,37 +5910,55 @@
         <v>20.813203999999999</v>
       </c>
       <c r="Z21">
-        <v>83885</v>
+        <v>86368</v>
       </c>
       <c r="AA21">
-        <v>32.603405000000002</v>
+        <v>33.129677000000001</v>
       </c>
       <c r="AB21">
-        <v>238947</v>
+        <v>238698</v>
       </c>
       <c r="AC21">
-        <v>38.757354999999997</v>
+        <v>39.31559</v>
       </c>
       <c r="AE21">
-        <v>40670</v>
+        <v>12073</v>
       </c>
       <c r="AF21">
-        <v>28.398903000000001</v>
+        <v>17.749901000000001</v>
       </c>
       <c r="AG21">
-        <v>62040</v>
+        <v>69067</v>
       </c>
       <c r="AH21">
-        <v>32.556015000000002</v>
+        <v>34.118617999999998</v>
       </c>
       <c r="AI21">
-        <v>200297</v>
+        <v>199786</v>
       </c>
       <c r="AJ21">
-        <v>39.001914999999997</v>
+        <v>39.504879000000003</v>
+      </c>
+      <c r="AL21">
+        <v>12073</v>
+      </c>
+      <c r="AM21">
+        <v>17.749901000000001</v>
+      </c>
+      <c r="AN21">
+        <v>60714</v>
+      </c>
+      <c r="AO21">
+        <v>33.829993999999999</v>
+      </c>
+      <c r="AP21">
+        <v>186190</v>
+      </c>
+      <c r="AQ21">
+        <v>39.451557000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6703,37 +6029,55 @@
         <v>20.881637999999999</v>
       </c>
       <c r="Z22">
-        <v>84160</v>
+        <v>83635</v>
       </c>
       <c r="AA22">
-        <v>32.586886999999997</v>
+        <v>33.080672999999997</v>
       </c>
       <c r="AB22">
-        <v>240330</v>
+        <v>238614</v>
       </c>
       <c r="AC22">
-        <v>38.792026999999997</v>
+        <v>39.083354999999997</v>
       </c>
       <c r="AE22">
-        <v>3358</v>
+        <v>11911</v>
       </c>
       <c r="AF22">
-        <v>23.454305999999999</v>
+        <v>17.778262999999999</v>
       </c>
       <c r="AG22">
-        <v>64367</v>
+        <v>49589</v>
       </c>
       <c r="AH22">
-        <v>32.619903999999998</v>
+        <v>32.855812</v>
       </c>
       <c r="AI22">
-        <v>183213</v>
+        <v>185454</v>
       </c>
       <c r="AJ22">
-        <v>38.198788</v>
+        <v>38.823020999999997</v>
+      </c>
+      <c r="AL22">
+        <v>11911</v>
+      </c>
+      <c r="AM22">
+        <v>17.778262999999999</v>
+      </c>
+      <c r="AN22">
+        <v>64744</v>
+      </c>
+      <c r="AO22">
+        <v>33.647841999999997</v>
+      </c>
+      <c r="AP22">
+        <v>192874</v>
+      </c>
+      <c r="AQ22">
+        <v>39.172237000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>AVERAGE(C2:C22)</f>
         <v>311008.38095238095</v>
@@ -6763,7 +6107,7 @@
         <v>100977.76190476191</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:AJ23" si="1">AVERAGE(J2:J22)</f>
+        <f t="shared" ref="J23:AQ23" si="1">AVERAGE(J2:J22)</f>
         <v>36.352430523809524</v>
       </c>
       <c r="K23">
@@ -6828,47 +6172,67 @@
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>79718.428571428565</v>
+        <v>81560.71428571429</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>33.841372333333332</v>
+        <v>32.426199238095236</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>213346.71428571429</v>
+        <v>220630.19047619047</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>40.380713714285704</v>
-      </c>
-      <c r="AD23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>39.548047523809529</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>21828.476190476191</v>
+        <v>11943.190476190477</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>26.247897952380953</v>
+        <v>19.713755666666671</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>76768.619047619053</v>
+        <v>68767.952380952382</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>36.168051952380956</v>
+        <v>36.651466285714285</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>184917.04761904763</v>
+        <v>190142.23809523811</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="1"/>
-        <v>42.159323190476186</v>
+        <v>42.458324285714284</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="1"/>
+        <v>12336.761904761905</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="1"/>
+        <v>19.96633404761905</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="1"/>
+        <v>72504.333333333328</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="1"/>
+        <v>36.766081714285718</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="1"/>
+        <v>205275.71428571429</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="1"/>
+        <v>42.651430333333323</v>
       </c>
     </row>
   </sheetData>
@@ -6878,26 +6242,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6905,637 +6272,290 @@
         <v>32.922676000000003</v>
       </c>
       <c r="C2">
-        <v>30.367435</v>
+        <v>31.998732</v>
+      </c>
+      <c r="D2">
+        <v>33.625340000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>34.755074</v>
+        <v>34.446255000000001</v>
       </c>
       <c r="C3">
-        <v>33.918883999999998</v>
+        <v>33.66404</v>
+      </c>
+      <c r="D3">
+        <v>34.232193000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>35.083424000000001</v>
+        <v>34.772243000000003</v>
       </c>
       <c r="C4">
-        <v>34.631259999999997</v>
+        <v>34.269011999999996</v>
+      </c>
+      <c r="D4">
+        <v>34.240195999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.199699000000003</v>
+        <v>35.180957999999997</v>
       </c>
       <c r="C5">
-        <v>34.500602999999998</v>
+        <v>33.985416000000001</v>
+      </c>
+      <c r="D5">
+        <v>36.036437999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.044659000000003</v>
+        <v>35.254860000000001</v>
       </c>
       <c r="C6">
-        <v>33.389885</v>
+        <v>34.765396000000003</v>
+      </c>
+      <c r="D6">
+        <v>34.891540999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34.590591000000003</v>
+        <v>35.075470000000003</v>
       </c>
       <c r="C7">
-        <v>33.704239000000001</v>
+        <v>34.167797</v>
+      </c>
+      <c r="D7">
+        <v>36.121532000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34.923457999999997</v>
+        <v>35.319267000000004</v>
       </c>
       <c r="C8">
-        <v>35.220275999999998</v>
+        <v>35.411414999999998</v>
+      </c>
+      <c r="D8">
+        <v>35.506691000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.799461000000001</v>
+        <v>20.453419</v>
       </c>
       <c r="C9">
-        <v>37.440894999999998</v>
+        <v>37.519649999999999</v>
+      </c>
+      <c r="D9">
+        <v>37.519649999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.378185000000002</v>
+        <v>28.630528999999999</v>
       </c>
       <c r="C10">
-        <v>38.930701999999997</v>
+        <v>39.888767000000001</v>
+      </c>
+      <c r="D10">
+        <v>39.839129999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.091048999999998</v>
+        <v>33.728476999999998</v>
       </c>
       <c r="C11">
-        <v>40.279502999999998</v>
+        <v>42.570678999999998</v>
+      </c>
+      <c r="D11">
+        <v>40.97636</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.734969999999997</v>
+        <v>35.681579999999997</v>
       </c>
       <c r="C12">
-        <v>41.126185999999997</v>
+        <v>43.398173999999997</v>
+      </c>
+      <c r="D12">
+        <v>42.372535999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.058281000000001</v>
+        <v>36.381531000000003</v>
       </c>
       <c r="C13">
-        <v>42.311821000000002</v>
+        <v>43.061348000000002</v>
+      </c>
+      <c r="D13">
+        <v>42.893104999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.224747000000001</v>
+        <v>36.802371999999998</v>
       </c>
       <c r="C14">
-        <v>45.268920999999999</v>
+        <v>44.530689000000002</v>
+      </c>
+      <c r="D14">
+        <v>43.424343</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.193446999999999</v>
+        <v>37.012076999999998</v>
       </c>
       <c r="C15">
-        <v>46.669379999999997</v>
+        <v>44.044246999999999</v>
+      </c>
+      <c r="D15">
+        <v>43.893970000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.674053000000001</v>
+        <v>20.808565000000002</v>
       </c>
       <c r="C16">
         <v>32.999721999999998</v>
       </c>
+      <c r="D16">
+        <v>32.999721999999998</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.070366</v>
+        <v>25.208953999999999</v>
       </c>
       <c r="C17">
-        <v>33.886490000000002</v>
+        <v>34.283462999999998</v>
+      </c>
+      <c r="D17">
+        <v>34.054993000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.523223999999999</v>
+        <v>31.867751999999999</v>
       </c>
       <c r="C18">
-        <v>33.959510999999999</v>
+        <v>34.402926999999998</v>
+      </c>
+      <c r="D18">
+        <v>34.033225999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.397342999999999</v>
+        <v>32.325004999999997</v>
       </c>
       <c r="C19">
-        <v>32.696449000000001</v>
+        <v>33.734946999999998</v>
+      </c>
+      <c r="D19">
+        <v>33.989097999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.81382</v>
+        <v>32.867843999999998</v>
       </c>
       <c r="C20">
-        <v>33.051009999999998</v>
+        <v>34.009940999999998</v>
+      </c>
+      <c r="D20">
+        <v>33.959816000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.603405000000002</v>
+        <v>33.129677000000001</v>
       </c>
       <c r="C21">
-        <v>32.556015000000002</v>
+        <v>34.118617999999998</v>
+      </c>
+      <c r="D21">
+        <v>33.829993999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.586886999999997</v>
+        <v>33.080672999999997</v>
       </c>
       <c r="C22">
-        <v>32.619903999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
-  <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>141254</v>
-      </c>
-      <c r="F3">
-        <v>83903</v>
-      </c>
-      <c r="P3">
-        <v>81524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>105334</v>
-      </c>
-      <c r="F4">
-        <v>59482</v>
-      </c>
-      <c r="P4">
-        <v>83325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>98473</v>
-      </c>
-      <c r="F5">
-        <v>53449</v>
-      </c>
-      <c r="P5">
-        <v>81810</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>91715</v>
-      </c>
-      <c r="F6">
-        <v>47518</v>
-      </c>
-      <c r="P6">
-        <v>81089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>97724</v>
-      </c>
-      <c r="F7">
-        <v>50026</v>
-      </c>
-      <c r="P7">
-        <v>82940</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>97256</v>
-      </c>
-      <c r="F8">
-        <v>52165</v>
-      </c>
-      <c r="P8">
-        <v>80535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>81433</v>
-      </c>
-      <c r="F9">
-        <v>45079</v>
-      </c>
-      <c r="P9">
-        <v>85019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>215548</v>
-      </c>
-      <c r="F10">
-        <v>144573</v>
-      </c>
-      <c r="P10">
-        <v>85675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>62364</v>
-      </c>
-      <c r="F11">
-        <v>40597</v>
-      </c>
-      <c r="P11">
-        <v>81952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>46443</v>
-      </c>
-      <c r="F12">
-        <v>33020</v>
-      </c>
-      <c r="P12">
-        <v>82766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>40788</v>
-      </c>
-      <c r="F13">
-        <v>31159</v>
-      </c>
-      <c r="P13">
-        <v>82222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>40053</v>
-      </c>
-      <c r="F14">
-        <v>30320</v>
-      </c>
-      <c r="P14">
-        <v>78872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>39462</v>
-      </c>
-      <c r="F15">
-        <v>30151</v>
-      </c>
-      <c r="P15">
-        <v>80207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>37070</v>
-      </c>
-      <c r="F16">
-        <v>29050</v>
-      </c>
-      <c r="P16">
-        <v>71573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>219219</v>
-      </c>
-      <c r="F17">
-        <v>144110</v>
-      </c>
-      <c r="P17">
-        <v>83747</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>122341</v>
-      </c>
-      <c r="F18">
-        <v>68919</v>
-      </c>
-      <c r="P18">
-        <v>82772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>116305</v>
-      </c>
-      <c r="F19">
-        <v>62691</v>
-      </c>
-      <c r="P19">
-        <v>88240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>112679</v>
-      </c>
-      <c r="F20">
-        <v>62883</v>
-      </c>
-      <c r="P20">
-        <v>86108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>116700</v>
-      </c>
-      <c r="F21">
-        <v>60007</v>
-      </c>
-      <c r="P21">
-        <v>80786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>117471</v>
-      </c>
-      <c r="F22">
-        <v>64820</v>
-      </c>
-      <c r="P22">
-        <v>81640</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>120901</v>
-      </c>
-      <c r="F23">
-        <v>66290</v>
-      </c>
-      <c r="P23">
-        <v>80726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <f>SUM(E2:E23)</f>
-        <v>2120536</v>
-      </c>
-      <c r="F24">
-        <f>SUM(F3:F23)</f>
-        <v>1260212</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ref="J24:P24" si="0">SUM(J3:J23)</f>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="0"/>
-        <v>1723528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <f>P24/E24</f>
-        <v>0.81277941048866886</v>
-      </c>
-      <c r="F25">
-        <f>P24/F24</f>
-        <v>1.3676492526654245</v>
+        <v>32.855812</v>
+      </c>
+      <c r="D22">
+        <v>33.647841999999997</v>
       </c>
     </row>
   </sheetData>

--- a/goldendata/Assigment3_E2/BitcountAndPSNRGraphsExercise2.xlsx
+++ b/goldendata/Assigment3_E2/BitcountAndPSNRGraphsExercise2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Source\Repos\ECE1718H\goldendata\Assigment3_E2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RD - GRAPHS" sheetId="1" r:id="rId1"/>
@@ -55,16 +55,16 @@
     <t>RunTime Table</t>
   </si>
   <si>
-    <t>Seconds</t>
-  </si>
-  <si>
-    <t>bps</t>
-  </si>
-  <si>
     <t>RC3</t>
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>Enconding Time</t>
+  </si>
+  <si>
+    <t>Target Bitrate</t>
   </si>
 </sst>
 </file>
@@ -910,8 +910,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Rate Control with 2.4 mbps Target Bitrate</a:t>
+              <a:t>Rate Control with 2.4 mbps Target Bitrate,</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> I-Period 21</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1193,59 +1198,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PSNR-GRAPHS'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'PSNR-GRAPHS'!$F$2:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6A2C-4216-BE11-04657B9942C4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'PSNR-GRAPHS'!$D$1</c:f>
@@ -3158,15 +3112,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G27"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3180,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3241,7 +3197,7 @@
         <v>36.766081714285718</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <v>76768.619047619053</v>
@@ -3387,16 +3343,16 @@
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -3405,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,7 +3421,7 @@
         <v>233.97</v>
       </c>
       <c r="F21">
-        <v>217.85</v>
+        <v>200.85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,6 +3431,18 @@
       <c r="B22">
         <v>112.18</v>
       </c>
+      <c r="D22">
+        <f>AVERAGE(D19:D21)</f>
+        <v>119.57666666666665</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:F22" si="0">AVERAGE(E19:E21)</f>
+        <v>238.08</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>181.29</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3484,9 +3452,16 @@
         <v>113.92</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>E22/F22</f>
+        <v>1.3132550057918253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3494,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ23"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2:AO22"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AN27" sqref="AN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="AK1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL1" t="s">
         <v>4</v>
@@ -6244,8 +6219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6261,7 +6236,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/goldendata/Assigment3_E2/BitcountAndPSNRGraphsExercise2.xlsx
+++ b/goldendata/Assigment3_E2/BitcountAndPSNRGraphsExercise2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Source\Repos\ECE1718H\goldendata\Assigment3_E2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="RD - GRAPHS" sheetId="1" r:id="rId1"/>
@@ -244,19 +244,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4773.7619047619046</c:v>
+                  <c:v>2858.1428571428573</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29433.904761904763</c:v>
+                  <c:v>25428.285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100977.76190476191</c:v>
+                  <c:v>86462.904761904763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160340.42857142858</c:v>
+                  <c:v>142668.04761904763</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237807</c:v>
+                  <c:v>218843.95238095237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,13 +337,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13302.666666666666</c:v>
+                  <c:v>13069.952380952382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81560.71428571429</c:v>
+                  <c:v>81241.190476190473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220630.19047619047</c:v>
+                  <c:v>215939.66666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -355,13 +355,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.517742619047617</c:v>
+                  <c:v>22.444562857142859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.426199238095236</c:v>
+                  <c:v>33.481976809523815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.548047523809529</c:v>
+                  <c:v>39.701834571428577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,13 +418,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11943.190476190477</c:v>
+                  <c:v>11397.285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68767.952380952382</c:v>
+                  <c:v>72208.28571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190142.23809523811</c:v>
+                  <c:v>180170.71428571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -436,13 +436,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.713755666666671</c:v>
+                  <c:v>22.444868666666668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.651466285714285</c:v>
+                  <c:v>37.901017904761908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.458324285714284</c:v>
+                  <c:v>42.643774666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -499,7 +499,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12336.761904761905</c:v>
+                  <c:v>22681.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72504.333333333328</c:v>
@@ -517,7 +517,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.96633404761905</c:v>
+                  <c:v>25.976852476190473</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36.766081714285718</c:v>
@@ -550,7 +550,6 @@
         <c:axId val="478281112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="3000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1008,67 +1007,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>32.922676000000003</c:v>
+                  <c:v>33.71217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.446255000000001</c:v>
+                  <c:v>34.977592000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.772243000000003</c:v>
+                  <c:v>35.601520999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.180957999999997</c:v>
+                  <c:v>36.001018999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.254860000000001</c:v>
+                  <c:v>36.042568000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.075470000000003</c:v>
+                  <c:v>35.805176000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.319267000000004</c:v>
+                  <c:v>36.198402000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.453419</c:v>
+                  <c:v>22.215456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.630528999999999</c:v>
+                  <c:v>29.546431999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.728476999999998</c:v>
+                  <c:v>34.363830999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.681579999999997</c:v>
+                  <c:v>36.397148000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.381531000000003</c:v>
+                  <c:v>37.539963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.802371999999998</c:v>
+                  <c:v>37.973083000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.012076999999998</c:v>
+                  <c:v>38.185809999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.808565000000002</c:v>
+                  <c:v>22.398741000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.208953999999999</c:v>
+                  <c:v>28.114082</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.867751999999999</c:v>
+                  <c:v>32.893360000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.325004999999997</c:v>
+                  <c:v>33.543633</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.867843999999998</c:v>
+                  <c:v>33.859313999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.129677000000001</c:v>
+                  <c:v>33.948051</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33.080672999999997</c:v>
+                  <c:v>33.804161000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,67 +1124,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>31.998732</c:v>
+                  <c:v>32.644416999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.66404</c:v>
+                  <c:v>34.521335999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.269011999999996</c:v>
+                  <c:v>34.437859000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.985416000000001</c:v>
+                  <c:v>36.423527</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.765396000000003</c:v>
+                  <c:v>35.461620000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.167797</c:v>
+                  <c:v>34.840857999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.411414999999998</c:v>
+                  <c:v>35.384262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.519649999999999</c:v>
+                  <c:v>38.224742999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.888767000000001</c:v>
+                  <c:v>41.793495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.570678999999998</c:v>
+                  <c:v>44.353096000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.398173999999997</c:v>
+                  <c:v>46.728625999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.061348000000002</c:v>
+                  <c:v>45.752555999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.530689000000002</c:v>
+                  <c:v>47.768062999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.044246999999999</c:v>
+                  <c:v>46.636276000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.999721999999998</c:v>
+                  <c:v>33.685768000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.283462999999998</c:v>
+                  <c:v>35.147345999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.402926999999998</c:v>
+                  <c:v>34.445698</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.734946999999998</c:v>
+                  <c:v>34.768410000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.009940999999998</c:v>
+                  <c:v>34.297500999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.118617999999998</c:v>
+                  <c:v>34.784973000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.855812</c:v>
+                  <c:v>33.820945999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,28 +3143,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>4773.7619047619046</v>
+        <v>2858.1428571428573</v>
       </c>
       <c r="C2">
         <v>19.136953714285717</v>
       </c>
       <c r="D2">
-        <v>13302.666666666666</v>
+        <v>13069.952380952382</v>
       </c>
       <c r="E2">
-        <v>21.517742619047617</v>
+        <v>22.444562857142859</v>
       </c>
       <c r="F2">
-        <v>11943.190476190477</v>
+        <v>11397.285714285714</v>
       </c>
       <c r="G2">
-        <v>19.713755666666671</v>
+        <v>22.444868666666668</v>
       </c>
       <c r="H2">
-        <v>12336.761904761905</v>
+        <v>22681.333333333332</v>
       </c>
       <c r="I2">
-        <v>19.96633404761905</v>
+        <v>25.976852476190473</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3173,22 +3172,22 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>29433.904761904763</v>
+        <v>25428.285714285714</v>
       </c>
       <c r="C3">
         <v>27.994726428571425</v>
       </c>
       <c r="D3">
-        <v>81560.71428571429</v>
+        <v>81241.190476190473</v>
       </c>
       <c r="E3">
-        <v>32.426199238095236</v>
+        <v>33.481976809523815</v>
       </c>
       <c r="F3">
-        <v>68767.952380952382</v>
+        <v>72208.28571428571</v>
       </c>
       <c r="G3">
-        <v>36.651466285714285</v>
+        <v>37.901017904761908</v>
       </c>
       <c r="H3">
         <v>72504.333333333328</v>
@@ -3211,22 +3210,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100977.76190476191</v>
+        <v>86462.904761904763</v>
       </c>
       <c r="C4">
         <v>36.352430523809524</v>
       </c>
       <c r="D4">
-        <v>220630.19047619047</v>
+        <v>215939.66666666666</v>
       </c>
       <c r="E4">
-        <v>39.548047523809529</v>
+        <v>39.701834571428577</v>
       </c>
       <c r="F4">
-        <v>190142.23809523811</v>
+        <v>180170.71428571429</v>
       </c>
       <c r="G4">
-        <v>42.458324285714284</v>
+        <v>42.643774666666665</v>
       </c>
       <c r="H4">
         <v>205275.71428571429</v>
@@ -3240,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>160340.42857142858</v>
+        <v>142668.04761904763</v>
       </c>
       <c r="C5">
         <v>38.988259857142857</v>
@@ -3251,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>237807</v>
+        <v>218843.95238095237</v>
       </c>
       <c r="C6">
         <v>41.812136714285721</v>
@@ -3469,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2:AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3558,118 +3557,118 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>430052</v>
+        <v>433453</v>
       </c>
       <c r="D2">
         <v>45.849541000000002</v>
       </c>
       <c r="E2">
-        <v>316810</v>
+        <v>313072</v>
       </c>
       <c r="F2">
         <v>42.504803000000003</v>
       </c>
       <c r="G2">
-        <v>220847</v>
+        <v>217285</v>
       </c>
       <c r="H2">
         <v>39.481341999999998</v>
       </c>
       <c r="I2">
-        <v>141254</v>
+        <v>136462</v>
       </c>
       <c r="J2">
         <v>36.541454000000002</v>
       </c>
       <c r="K2">
-        <v>83903</v>
+        <v>77157</v>
       </c>
       <c r="L2">
         <v>33.654021999999998</v>
       </c>
       <c r="M2">
-        <v>50343</v>
+        <v>41853</v>
       </c>
       <c r="N2">
         <v>30.828196999999999</v>
       </c>
       <c r="O2">
-        <v>31719</v>
+        <v>22025</v>
       </c>
       <c r="P2">
         <v>27.777391000000001</v>
       </c>
       <c r="Q2">
-        <v>21818</v>
+        <v>10516</v>
       </c>
       <c r="R2">
         <v>24.906963000000001</v>
       </c>
       <c r="S2">
-        <v>18149</v>
+        <v>5467</v>
       </c>
       <c r="T2">
         <v>22.248940999999999</v>
       </c>
       <c r="U2">
-        <v>14162</v>
+        <v>3122</v>
       </c>
       <c r="V2">
         <v>19.742121000000001</v>
       </c>
       <c r="X2">
-        <v>13136</v>
+        <v>12062</v>
       </c>
       <c r="Y2">
-        <v>18.783055999999998</v>
+        <v>25.185714999999998</v>
       </c>
       <c r="Z2">
-        <v>81377</v>
+        <v>82336</v>
       </c>
       <c r="AA2">
-        <v>32.922676000000003</v>
+        <v>33.71217</v>
       </c>
       <c r="AB2">
-        <v>237225</v>
+        <v>233483</v>
       </c>
       <c r="AC2">
         <v>39.829174000000002</v>
       </c>
       <c r="AE2">
-        <v>12686</v>
+        <v>9362</v>
       </c>
       <c r="AF2">
-        <v>19.131360999999998</v>
+        <v>24.032637000000001</v>
       </c>
       <c r="AG2">
-        <v>70733</v>
+        <v>69336</v>
       </c>
       <c r="AH2">
-        <v>31.998732</v>
+        <v>32.644416999999997</v>
       </c>
       <c r="AI2">
-        <v>217757</v>
+        <v>200410</v>
       </c>
       <c r="AJ2">
-        <v>39.163272999999997</v>
+        <v>38.897109999999998</v>
       </c>
       <c r="AL2">
-        <v>20951</v>
+        <v>19411</v>
       </c>
       <c r="AM2">
-        <v>24.435507000000001</v>
+        <v>22.707294000000001</v>
       </c>
       <c r="AN2">
-        <v>84229</v>
+        <v>84566</v>
       </c>
       <c r="AO2">
-        <v>33.625340000000001</v>
+        <v>33.646254999999996</v>
       </c>
       <c r="AP2">
-        <v>102758</v>
+        <v>147881</v>
       </c>
       <c r="AQ2">
-        <v>34.102176999999998</v>
+        <v>36.796332999999997</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -3677,118 +3676,118 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>352462</v>
+        <v>363902</v>
       </c>
       <c r="D3">
         <v>45.770432</v>
       </c>
       <c r="E3">
-        <v>266016</v>
+        <v>247136</v>
       </c>
       <c r="F3">
         <v>42.585323000000002</v>
       </c>
       <c r="G3">
-        <v>178761</v>
+        <v>157477</v>
       </c>
       <c r="H3">
         <v>39.694965000000003</v>
       </c>
       <c r="I3">
-        <v>105334</v>
+        <v>88852</v>
       </c>
       <c r="J3">
         <v>36.826805</v>
       </c>
       <c r="K3">
-        <v>59482</v>
+        <v>46742</v>
       </c>
       <c r="L3">
         <v>34.000214</v>
       </c>
       <c r="M3">
-        <v>34579</v>
+        <v>27593</v>
       </c>
       <c r="N3">
         <v>31.280934999999999</v>
       </c>
       <c r="O3">
-        <v>30612</v>
+        <v>22308</v>
       </c>
       <c r="P3">
         <v>28.506730999999998</v>
       </c>
       <c r="Q3">
-        <v>29264</v>
+        <v>18822</v>
       </c>
       <c r="R3">
         <v>25.814342</v>
       </c>
       <c r="S3">
-        <v>4009</v>
+        <v>3311</v>
       </c>
       <c r="T3">
         <v>22.248090999999999</v>
       </c>
       <c r="U3">
-        <v>4589</v>
+        <v>2497</v>
       </c>
       <c r="V3">
         <v>19.766991000000001</v>
       </c>
       <c r="X3">
-        <v>16121</v>
+        <v>15490</v>
       </c>
       <c r="Y3">
-        <v>22.573967</v>
+        <v>24.696459000000001</v>
       </c>
       <c r="Z3">
-        <v>79430</v>
+        <v>79204</v>
       </c>
       <c r="AA3">
-        <v>34.446255000000001</v>
+        <v>34.977592000000001</v>
       </c>
       <c r="AB3">
-        <v>231621</v>
+        <v>233523</v>
       </c>
       <c r="AC3">
-        <v>40.867767000000001</v>
+        <v>41.520789999999998</v>
       </c>
       <c r="AE3">
-        <v>12369</v>
+        <v>45203</v>
       </c>
       <c r="AF3">
-        <v>19.387526000000001</v>
+        <v>29.594373999999998</v>
       </c>
       <c r="AG3">
-        <v>63386</v>
+        <v>67423</v>
       </c>
       <c r="AH3">
-        <v>33.66404</v>
+        <v>34.521335999999998</v>
       </c>
       <c r="AI3">
-        <v>181238</v>
+        <v>198464</v>
       </c>
       <c r="AJ3">
-        <v>39.900351999999998</v>
+        <v>40.624186999999999</v>
       </c>
       <c r="AL3">
-        <v>12369</v>
+        <v>32969</v>
       </c>
       <c r="AM3">
-        <v>19.387526000000001</v>
+        <v>27.342777000000002</v>
       </c>
       <c r="AN3">
-        <v>64658</v>
+        <v>67363</v>
       </c>
       <c r="AO3">
-        <v>34.232193000000002</v>
+        <v>34.345337000000001</v>
       </c>
       <c r="AP3">
-        <v>211922</v>
+        <v>198743</v>
       </c>
       <c r="AQ3">
-        <v>39.397129</v>
+        <v>39.675705000000001</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -3796,49 +3795,49 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>345953</v>
+        <v>358108</v>
       </c>
       <c r="D4">
         <v>45.695404000000003</v>
       </c>
       <c r="E4">
-        <v>264622</v>
+        <v>243438</v>
       </c>
       <c r="F4">
         <v>42.517631999999999</v>
       </c>
       <c r="G4">
-        <v>172963</v>
+        <v>152141</v>
       </c>
       <c r="H4">
         <v>39.619846000000003</v>
       </c>
       <c r="I4">
-        <v>98473</v>
+        <v>83631</v>
       </c>
       <c r="J4">
         <v>36.802345000000003</v>
       </c>
       <c r="K4">
-        <v>53449</v>
+        <v>44073</v>
       </c>
       <c r="L4">
         <v>34.052630999999998</v>
       </c>
       <c r="M4">
-        <v>35509</v>
+        <v>27197</v>
       </c>
       <c r="N4">
         <v>31.409569000000001</v>
       </c>
       <c r="O4">
-        <v>27974</v>
+        <v>22296</v>
       </c>
       <c r="P4">
         <v>28.68919</v>
       </c>
       <c r="Q4">
-        <v>26821</v>
+        <v>20139</v>
       </c>
       <c r="R4">
         <v>26.040839999999999</v>
@@ -3850,64 +3849,64 @@
         <v>22.014873999999999</v>
       </c>
       <c r="U4">
-        <v>4114</v>
+        <v>2356</v>
       </c>
       <c r="V4">
         <v>19.823429000000001</v>
       </c>
       <c r="X4">
-        <v>10169</v>
+        <v>18027</v>
       </c>
       <c r="Y4">
-        <v>22.485600000000002</v>
+        <v>24.031949999999998</v>
       </c>
       <c r="Z4">
-        <v>83005</v>
+        <v>83745</v>
       </c>
       <c r="AA4">
-        <v>34.772243000000003</v>
+        <v>35.601520999999998</v>
       </c>
       <c r="AB4">
-        <v>233004</v>
+        <v>235578</v>
       </c>
       <c r="AC4">
-        <v>41.006207000000003</v>
+        <v>41.784205999999998</v>
       </c>
       <c r="AE4">
-        <v>12575</v>
+        <v>8166</v>
       </c>
       <c r="AF4">
-        <v>19.797535</v>
+        <v>26.238918000000002</v>
       </c>
       <c r="AG4">
-        <v>66294</v>
+        <v>46280</v>
       </c>
       <c r="AH4">
-        <v>34.269011999999996</v>
+        <v>34.437859000000003</v>
       </c>
       <c r="AI4">
-        <v>198078</v>
+        <v>170039</v>
       </c>
       <c r="AJ4">
-        <v>40.414073999999999</v>
+        <v>40.381653</v>
       </c>
       <c r="AL4">
-        <v>12575</v>
+        <v>13089</v>
       </c>
       <c r="AM4">
-        <v>19.797535</v>
+        <v>25.437721</v>
       </c>
       <c r="AN4">
-        <v>55577</v>
+        <v>116490</v>
       </c>
       <c r="AO4">
-        <v>34.240195999999997</v>
+        <v>36.289924999999997</v>
       </c>
       <c r="AP4">
-        <v>177753</v>
+        <v>261091</v>
       </c>
       <c r="AQ4">
-        <v>39.768462999999997</v>
+        <v>41.796931999999998</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -3915,49 +3914,49 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>327059</v>
+        <v>337053</v>
       </c>
       <c r="D5">
         <v>45.690666</v>
       </c>
       <c r="E5">
-        <v>247931</v>
+        <v>223947</v>
       </c>
       <c r="F5">
         <v>42.575073000000003</v>
       </c>
       <c r="G5">
-        <v>157238</v>
+        <v>133972</v>
       </c>
       <c r="H5">
         <v>39.670437</v>
       </c>
       <c r="I5">
-        <v>91715</v>
+        <v>72681</v>
       </c>
       <c r="J5">
         <v>36.866942999999999</v>
       </c>
       <c r="K5">
-        <v>47518</v>
+        <v>38482</v>
       </c>
       <c r="L5">
         <v>34.102649999999997</v>
       </c>
       <c r="M5">
-        <v>31815</v>
+        <v>25495</v>
       </c>
       <c r="N5">
         <v>31.445544999999999</v>
       </c>
       <c r="O5">
-        <v>26110</v>
+        <v>22146</v>
       </c>
       <c r="P5">
         <v>28.762667</v>
       </c>
       <c r="Q5">
-        <v>26681</v>
+        <v>20009</v>
       </c>
       <c r="R5">
         <v>26.253261999999999</v>
@@ -3969,64 +3968,64 @@
         <v>22.095476000000001</v>
       </c>
       <c r="U5">
-        <v>4083</v>
+        <v>2357</v>
       </c>
       <c r="V5">
         <v>19.838308000000001</v>
       </c>
       <c r="X5">
-        <v>11227</v>
+        <v>11859</v>
       </c>
       <c r="Y5">
-        <v>22.433809</v>
+        <v>23.509215999999999</v>
       </c>
       <c r="Z5">
-        <v>80234</v>
+        <v>80466</v>
       </c>
       <c r="AA5">
-        <v>35.180957999999997</v>
+        <v>36.001018999999999</v>
       </c>
       <c r="AB5">
-        <v>236484</v>
+        <v>234857</v>
       </c>
       <c r="AC5">
-        <v>41.843105000000001</v>
+        <v>42.363681999999997</v>
       </c>
       <c r="AE5">
-        <v>11925</v>
+        <v>43904</v>
       </c>
       <c r="AF5">
-        <v>19.552675000000001</v>
+        <v>31.139042</v>
       </c>
       <c r="AG5">
-        <v>46146</v>
+        <v>105856</v>
       </c>
       <c r="AH5">
-        <v>33.985416000000001</v>
+        <v>36.423527</v>
       </c>
       <c r="AI5">
-        <v>163846</v>
+        <v>165143</v>
       </c>
       <c r="AJ5">
-        <v>40.103157000000003</v>
+        <v>40.591437999999997</v>
       </c>
       <c r="AL5">
-        <v>11925</v>
+        <v>36989</v>
       </c>
       <c r="AM5">
-        <v>19.552675000000001</v>
+        <v>28.34552</v>
       </c>
       <c r="AN5">
-        <v>110073</v>
+        <v>92008</v>
       </c>
       <c r="AO5">
-        <v>36.036437999999997</v>
+        <v>36.496391000000003</v>
       </c>
       <c r="AP5">
-        <v>235467</v>
+        <v>237324</v>
       </c>
       <c r="AQ5">
-        <v>41.285418999999997</v>
+        <v>42.028027000000002</v>
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
@@ -4034,49 +4033,49 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>347858</v>
+        <v>358652</v>
       </c>
       <c r="D6">
         <v>45.529015000000001</v>
       </c>
       <c r="E6">
-        <v>261391</v>
+        <v>239541</v>
       </c>
       <c r="F6">
         <v>42.490940000000002</v>
       </c>
       <c r="G6">
-        <v>167846</v>
+        <v>145570</v>
       </c>
       <c r="H6">
         <v>39.647396000000001</v>
       </c>
       <c r="I6">
-        <v>97724</v>
+        <v>77982</v>
       </c>
       <c r="J6">
         <v>36.864071000000003</v>
       </c>
       <c r="K6">
-        <v>50026</v>
+        <v>40362</v>
       </c>
       <c r="L6">
         <v>34.121837999999997</v>
       </c>
       <c r="M6">
-        <v>30558</v>
+        <v>26586</v>
       </c>
       <c r="N6">
         <v>31.453955000000001</v>
       </c>
       <c r="O6">
-        <v>24838</v>
+        <v>21840</v>
       </c>
       <c r="P6">
         <v>28.794060000000002</v>
       </c>
       <c r="Q6">
-        <v>24320</v>
+        <v>20646</v>
       </c>
       <c r="R6">
         <v>26.319576000000001</v>
@@ -4088,64 +4087,64 @@
         <v>21.975866</v>
       </c>
       <c r="U6">
-        <v>4078</v>
+        <v>2336</v>
       </c>
       <c r="V6">
         <v>19.842054000000001</v>
       </c>
       <c r="X6">
-        <v>14126</v>
+        <v>13253</v>
       </c>
       <c r="Y6">
-        <v>22.457798</v>
+        <v>23.263698999999999</v>
       </c>
       <c r="Z6">
-        <v>80568</v>
+        <v>80350</v>
       </c>
       <c r="AA6">
-        <v>35.254860000000001</v>
+        <v>36.042568000000003</v>
       </c>
       <c r="AB6">
-        <v>237525</v>
+        <v>234980</v>
       </c>
       <c r="AC6">
-        <v>41.549281999999998</v>
+        <v>42.011276000000002</v>
       </c>
       <c r="AE6">
-        <v>12478</v>
+        <v>3692</v>
       </c>
       <c r="AF6">
-        <v>19.048214000000002</v>
+        <v>24.258467</v>
       </c>
       <c r="AG6">
-        <v>71076</v>
+        <v>46430</v>
       </c>
       <c r="AH6">
-        <v>34.765396000000003</v>
+        <v>35.461620000000003</v>
       </c>
       <c r="AI6">
-        <v>171986</v>
+        <v>161966</v>
       </c>
       <c r="AJ6">
-        <v>39.873997000000003</v>
+        <v>40.442512999999998</v>
       </c>
       <c r="AL6">
-        <v>12478</v>
+        <v>4694</v>
       </c>
       <c r="AM6">
-        <v>19.048214000000002</v>
+        <v>23.358656</v>
       </c>
       <c r="AN6">
-        <v>52927</v>
+        <v>97689</v>
       </c>
       <c r="AO6">
-        <v>34.891540999999997</v>
+        <v>36.498210999999998</v>
       </c>
       <c r="AP6">
-        <v>237655</v>
+        <v>238779</v>
       </c>
       <c r="AQ6">
-        <v>41.569350999999997</v>
+        <v>41.795318999999999</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
@@ -4153,49 +4152,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>352434</v>
+        <v>362829</v>
       </c>
       <c r="D7">
         <v>45.384253999999999</v>
       </c>
       <c r="E7">
-        <v>268344</v>
+        <v>244548</v>
       </c>
       <c r="F7">
         <v>42.221995999999997</v>
       </c>
       <c r="G7">
-        <v>172452</v>
+        <v>153924</v>
       </c>
       <c r="H7">
         <v>39.460628999999997</v>
       </c>
       <c r="I7">
-        <v>97256</v>
+        <v>84244</v>
       </c>
       <c r="J7">
         <v>36.697563000000002</v>
       </c>
       <c r="K7">
-        <v>52165</v>
+        <v>43071</v>
       </c>
       <c r="L7">
         <v>33.948214999999998</v>
       </c>
       <c r="M7">
-        <v>32226</v>
+        <v>27194</v>
       </c>
       <c r="N7">
         <v>31.325464</v>
       </c>
       <c r="O7">
-        <v>25979</v>
+        <v>21621</v>
       </c>
       <c r="P7">
         <v>28.751728</v>
       </c>
       <c r="Q7">
-        <v>24329</v>
+        <v>20733</v>
       </c>
       <c r="R7">
         <v>26.392140999999999</v>
@@ -4207,64 +4206,64 @@
         <v>21.982132</v>
       </c>
       <c r="U7">
-        <v>4074</v>
+        <v>2332</v>
       </c>
       <c r="V7">
         <v>19.845842000000001</v>
       </c>
       <c r="X7">
-        <v>14011</v>
+        <v>12211</v>
       </c>
       <c r="Y7">
-        <v>22.425180000000001</v>
+        <v>23.122599000000001</v>
       </c>
       <c r="Z7">
-        <v>80301</v>
+        <v>82614</v>
       </c>
       <c r="AA7">
-        <v>35.075470000000003</v>
+        <v>35.805176000000003</v>
       </c>
       <c r="AB7">
-        <v>234496</v>
+        <v>234677</v>
       </c>
       <c r="AC7">
-        <v>41.149731000000003</v>
+        <v>41.617145999999998</v>
       </c>
       <c r="AE7">
-        <v>11881</v>
+        <v>5700</v>
       </c>
       <c r="AF7">
-        <v>18.731864999999999</v>
+        <v>23.947588</v>
       </c>
       <c r="AG7">
-        <v>48845</v>
+        <v>46326</v>
       </c>
       <c r="AH7">
-        <v>34.167797</v>
+        <v>34.840857999999997</v>
       </c>
       <c r="AI7">
-        <v>196930</v>
+        <v>174881</v>
       </c>
       <c r="AJ7">
-        <v>40.276733</v>
+        <v>40.289462999999998</v>
       </c>
       <c r="AL7">
-        <v>11881</v>
+        <v>5270</v>
       </c>
       <c r="AM7">
-        <v>18.731864999999999</v>
+        <v>23.121981000000002</v>
       </c>
       <c r="AN7">
-        <v>105039</v>
+        <v>95249</v>
       </c>
       <c r="AO7">
-        <v>36.121532000000002</v>
+        <v>36.462864000000003</v>
       </c>
       <c r="AP7">
-        <v>247648</v>
+        <v>246460</v>
       </c>
       <c r="AQ7">
-        <v>41.458221000000002</v>
+        <v>41.585937999999999</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -4272,49 +4271,49 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>297877</v>
+        <v>305833</v>
       </c>
       <c r="D8">
         <v>45.582644999999999</v>
       </c>
       <c r="E8">
-        <v>213865</v>
+        <v>196649</v>
       </c>
       <c r="F8">
         <v>42.43224</v>
       </c>
       <c r="G8">
-        <v>134745</v>
+        <v>112573</v>
       </c>
       <c r="H8">
         <v>39.608074000000002</v>
       </c>
       <c r="I8">
-        <v>81433</v>
+        <v>60899</v>
       </c>
       <c r="J8">
         <v>36.822231000000002</v>
       </c>
       <c r="K8">
-        <v>45079</v>
+        <v>34307</v>
       </c>
       <c r="L8">
         <v>34.052559000000002</v>
       </c>
       <c r="M8">
-        <v>29415</v>
+        <v>24721</v>
       </c>
       <c r="N8">
         <v>31.326623999999999</v>
       </c>
       <c r="O8">
-        <v>26115</v>
+        <v>21425</v>
       </c>
       <c r="P8">
         <v>28.785395000000001</v>
       </c>
       <c r="Q8">
-        <v>24491</v>
+        <v>20465</v>
       </c>
       <c r="R8">
         <v>26.376415000000001</v>
@@ -4326,64 +4325,64 @@
         <v>21.772627</v>
       </c>
       <c r="U8">
-        <v>4036</v>
+        <v>2294</v>
       </c>
       <c r="V8">
         <v>19.725982999999999</v>
       </c>
       <c r="X8">
-        <v>17580</v>
+        <v>11276</v>
       </c>
       <c r="Y8">
-        <v>22.261185000000001</v>
+        <v>23.020797999999999</v>
       </c>
       <c r="Z8">
-        <v>78053</v>
+        <v>82222</v>
       </c>
       <c r="AA8">
-        <v>35.319267000000004</v>
+        <v>36.198402000000002</v>
       </c>
       <c r="AB8">
-        <v>232739</v>
+        <v>230650</v>
       </c>
       <c r="AC8">
-        <v>42.175593999999997</v>
+        <v>42.514153</v>
       </c>
       <c r="AE8">
-        <v>12134</v>
+        <v>43859</v>
       </c>
       <c r="AF8">
-        <v>18.125368000000002</v>
+        <v>28.354004</v>
       </c>
       <c r="AG8">
-        <v>86866</v>
+        <v>50739</v>
       </c>
       <c r="AH8">
-        <v>35.411414999999998</v>
+        <v>35.384262</v>
       </c>
       <c r="AI8">
-        <v>173943</v>
+        <v>196562</v>
       </c>
       <c r="AJ8">
-        <v>40.782494</v>
+        <v>41.571013999999998</v>
       </c>
       <c r="AL8">
-        <v>12134</v>
+        <v>41141</v>
       </c>
       <c r="AM8">
-        <v>18.125368000000002</v>
+        <v>27.755865</v>
       </c>
       <c r="AN8">
-        <v>53573</v>
+        <v>83238</v>
       </c>
       <c r="AO8">
-        <v>35.506691000000004</v>
+        <v>36.669018000000001</v>
       </c>
       <c r="AP8">
-        <v>211075</v>
+        <v>213578</v>
       </c>
       <c r="AQ8">
-        <v>41.958126</v>
+        <v>42.051861000000002</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -4391,55 +4390,55 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>518146</v>
+        <v>541155</v>
       </c>
       <c r="D9">
         <v>44.944592</v>
       </c>
       <c r="E9">
-        <v>417305</v>
+        <v>407273</v>
       </c>
       <c r="F9">
         <v>41.494801000000002</v>
       </c>
       <c r="G9">
-        <v>308711</v>
+        <v>298681</v>
       </c>
       <c r="H9">
         <v>38.568213999999998</v>
       </c>
       <c r="I9">
-        <v>215548</v>
+        <v>206806</v>
       </c>
       <c r="J9">
         <v>35.770888999999997</v>
       </c>
       <c r="K9">
-        <v>144573</v>
+        <v>135441</v>
       </c>
       <c r="L9">
         <v>32.916182999999997</v>
       </c>
       <c r="M9">
-        <v>94106</v>
+        <v>84970</v>
       </c>
       <c r="N9">
         <v>29.572389999999999</v>
       </c>
       <c r="O9">
-        <v>63302</v>
+        <v>51372</v>
       </c>
       <c r="P9">
         <v>26.215537999999999</v>
       </c>
       <c r="Q9">
-        <v>44546</v>
+        <v>34478</v>
       </c>
       <c r="R9">
         <v>23.545029</v>
       </c>
       <c r="S9">
-        <v>8732</v>
+        <v>8048</v>
       </c>
       <c r="T9">
         <v>21.483618</v>
@@ -4451,58 +4450,58 @@
         <v>19.289353999999999</v>
       </c>
       <c r="X9">
-        <v>13092</v>
+        <v>11984</v>
       </c>
       <c r="Y9">
-        <v>21.718384</v>
+        <v>21.616569999999999</v>
       </c>
       <c r="Z9">
-        <v>85362</v>
+        <v>81389</v>
       </c>
       <c r="AA9">
-        <v>20.453419</v>
+        <v>22.215456</v>
       </c>
       <c r="AB9">
-        <v>235185</v>
+        <v>234388</v>
       </c>
       <c r="AC9">
-        <v>24.518744000000002</v>
+        <v>24.828541000000001</v>
       </c>
       <c r="AE9">
-        <v>11589</v>
+        <v>8751</v>
       </c>
       <c r="AF9">
-        <v>22.001522000000001</v>
+        <v>20.796799</v>
       </c>
       <c r="AG9">
-        <v>77495</v>
+        <v>76353</v>
       </c>
       <c r="AH9">
-        <v>37.519649999999999</v>
+        <v>38.224742999999997</v>
       </c>
       <c r="AI9">
-        <v>213105</v>
+        <v>213831</v>
       </c>
       <c r="AJ9">
-        <v>45.155082999999998</v>
+        <v>45.246043999999998</v>
       </c>
       <c r="AL9">
-        <v>11589</v>
+        <v>11368</v>
       </c>
       <c r="AM9">
-        <v>22.001522000000001</v>
+        <v>27.869510999999999</v>
       </c>
       <c r="AN9">
-        <v>77495</v>
+        <v>76353</v>
       </c>
       <c r="AO9">
-        <v>37.519649999999999</v>
+        <v>38.224742999999997</v>
       </c>
       <c r="AP9">
-        <v>213105</v>
+        <v>213831</v>
       </c>
       <c r="AQ9">
-        <v>45.155082999999998</v>
+        <v>45.246043999999998</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
@@ -4510,118 +4509,118 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>155776</v>
+        <v>160505</v>
       </c>
       <c r="D10">
         <v>45.283154000000003</v>
       </c>
       <c r="E10">
-        <v>127340</v>
+        <v>105256</v>
       </c>
       <c r="F10">
         <v>41.788322000000001</v>
       </c>
       <c r="G10">
-        <v>88894</v>
+        <v>72606</v>
       </c>
       <c r="H10">
         <v>39.062640999999999</v>
       </c>
       <c r="I10">
-        <v>62364</v>
+        <v>48284</v>
       </c>
       <c r="J10">
         <v>36.497013000000003</v>
       </c>
       <c r="K10">
-        <v>40597</v>
+        <v>32775</v>
       </c>
       <c r="L10">
         <v>33.812851000000002</v>
       </c>
       <c r="M10">
-        <v>28532</v>
+        <v>25844</v>
       </c>
       <c r="N10">
         <v>30.561602000000001</v>
       </c>
       <c r="O10">
-        <v>26165</v>
+        <v>23215</v>
       </c>
       <c r="P10">
         <v>27.397110000000001</v>
       </c>
       <c r="Q10">
-        <v>25317</v>
+        <v>23371</v>
       </c>
       <c r="R10">
         <v>24.930405</v>
       </c>
       <c r="S10">
-        <v>8122</v>
+        <v>4532</v>
       </c>
       <c r="T10">
         <v>21.671147999999999</v>
       </c>
       <c r="U10">
-        <v>5515</v>
+        <v>3161</v>
       </c>
       <c r="V10">
         <v>19.442698</v>
       </c>
       <c r="X10">
-        <v>11383</v>
+        <v>11483</v>
       </c>
       <c r="Y10">
-        <v>21.973611999999999</v>
+        <v>22.392838999999999</v>
       </c>
       <c r="Z10">
-        <v>80910</v>
+        <v>79922</v>
       </c>
       <c r="AA10">
-        <v>28.630528999999999</v>
+        <v>29.546431999999999</v>
       </c>
       <c r="AB10">
-        <v>239145</v>
+        <v>238393</v>
       </c>
       <c r="AC10">
-        <v>39.853630000000003</v>
+        <v>40.484454999999997</v>
       </c>
       <c r="AE10">
-        <v>11385</v>
+        <v>5060</v>
       </c>
       <c r="AF10">
-        <v>21.999476999999999</v>
+        <v>20.946812000000001</v>
       </c>
       <c r="AG10">
-        <v>65374</v>
+        <v>93151</v>
       </c>
       <c r="AH10">
-        <v>39.888767000000001</v>
+        <v>41.793495</v>
       </c>
       <c r="AI10">
-        <v>238461</v>
+        <v>215540</v>
       </c>
       <c r="AJ10">
-        <v>47.835735</v>
+        <v>47.858367999999999</v>
       </c>
       <c r="AL10">
-        <v>11385</v>
+        <v>17593</v>
       </c>
       <c r="AM10">
-        <v>21.999476999999999</v>
+        <v>28.856445000000001</v>
       </c>
       <c r="AN10">
-        <v>65089</v>
+        <v>67043</v>
       </c>
       <c r="AO10">
-        <v>39.839129999999997</v>
+        <v>40.493876999999998</v>
       </c>
       <c r="AP10">
-        <v>183551</v>
+        <v>182260</v>
       </c>
       <c r="AQ10">
-        <v>47.141219999999997</v>
+        <v>47.178871000000001</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -4629,118 +4628,118 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>132189</v>
+        <v>136288</v>
       </c>
       <c r="D11">
         <v>45.403717</v>
       </c>
       <c r="E11">
-        <v>99875</v>
+        <v>79733</v>
       </c>
       <c r="F11">
         <v>41.875869999999999</v>
       </c>
       <c r="G11">
-        <v>66941</v>
+        <v>50363</v>
       </c>
       <c r="H11">
         <v>39.28548</v>
       </c>
       <c r="I11">
-        <v>46443</v>
+        <v>32615</v>
       </c>
       <c r="J11">
         <v>36.860461999999998</v>
       </c>
       <c r="K11">
-        <v>33020</v>
+        <v>23768</v>
       </c>
       <c r="L11">
         <v>34.225048000000001</v>
       </c>
       <c r="M11">
-        <v>24933</v>
+        <v>21567</v>
       </c>
       <c r="N11">
         <v>31.086258000000001</v>
       </c>
       <c r="O11">
-        <v>22234</v>
+        <v>21904</v>
       </c>
       <c r="P11">
         <v>28.011165999999999</v>
       </c>
       <c r="Q11">
-        <v>23691</v>
+        <v>22395</v>
       </c>
       <c r="R11">
         <v>25.705535999999999</v>
       </c>
       <c r="S11">
-        <v>7724</v>
+        <v>4088</v>
       </c>
       <c r="T11">
         <v>21.814646</v>
       </c>
       <c r="U11">
-        <v>7187</v>
+        <v>3475</v>
       </c>
       <c r="V11">
         <v>19.721809</v>
       </c>
       <c r="X11">
-        <v>11553</v>
+        <v>12754</v>
       </c>
       <c r="Y11">
-        <v>21.847237</v>
+        <v>22.707705000000001</v>
       </c>
       <c r="Z11">
-        <v>81750</v>
+        <v>81599</v>
       </c>
       <c r="AA11">
-        <v>33.728476999999998</v>
+        <v>34.363830999999998</v>
       </c>
       <c r="AB11">
-        <v>235747</v>
+        <v>218120</v>
       </c>
       <c r="AC11">
-        <v>42.332458000000003</v>
+        <v>42.482470999999997</v>
       </c>
       <c r="AE11">
-        <v>11575</v>
+        <v>4528</v>
       </c>
       <c r="AF11">
-        <v>21.995365</v>
+        <v>20.920908000000001</v>
       </c>
       <c r="AG11">
-        <v>110922</v>
+        <v>100717</v>
       </c>
       <c r="AH11">
-        <v>42.570678999999998</v>
+        <v>44.353096000000001</v>
       </c>
       <c r="AI11">
-        <v>182897</v>
+        <v>168509</v>
       </c>
       <c r="AJ11">
-        <v>48.042301000000002</v>
+        <v>48.071784999999998</v>
       </c>
       <c r="AL11">
-        <v>11575</v>
+        <v>17762</v>
       </c>
       <c r="AM11">
-        <v>21.995365</v>
+        <v>27.389586999999999</v>
       </c>
       <c r="AN11">
-        <v>64017</v>
+        <v>92244</v>
       </c>
       <c r="AO11">
-        <v>40.97636</v>
+        <v>42.351765</v>
       </c>
       <c r="AP11">
-        <v>197804</v>
+        <v>207225</v>
       </c>
       <c r="AQ11">
-        <v>47.837657999999998</v>
+        <v>47.968921999999999</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -4748,118 +4747,118 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>120163</v>
+        <v>124084</v>
       </c>
       <c r="D12">
         <v>45.449223000000003</v>
       </c>
       <c r="E12">
-        <v>90373</v>
+        <v>68903</v>
       </c>
       <c r="F12">
         <v>41.908000999999999</v>
       </c>
       <c r="G12">
-        <v>57427</v>
+        <v>41247</v>
       </c>
       <c r="H12">
         <v>39.419384000000001</v>
       </c>
       <c r="I12">
-        <v>40788</v>
+        <v>27082</v>
       </c>
       <c r="J12">
         <v>37.069180000000003</v>
       </c>
       <c r="K12">
-        <v>31159</v>
+        <v>21537</v>
       </c>
       <c r="L12">
         <v>34.479782</v>
       </c>
       <c r="M12">
-        <v>24683</v>
+        <v>20975</v>
       </c>
       <c r="N12">
         <v>31.431992000000001</v>
       </c>
       <c r="O12">
-        <v>22672</v>
+        <v>21666</v>
       </c>
       <c r="P12">
         <v>28.422739</v>
       </c>
       <c r="Q12">
-        <v>23951</v>
+        <v>22629</v>
       </c>
       <c r="R12">
         <v>26.181011000000002</v>
       </c>
       <c r="S12">
-        <v>6276</v>
+        <v>3584</v>
       </c>
       <c r="T12">
         <v>21.740497999999999</v>
       </c>
       <c r="U12">
-        <v>3054</v>
+        <v>2358</v>
       </c>
       <c r="V12">
         <v>19.744008999999998</v>
       </c>
       <c r="X12">
-        <v>11600</v>
+        <v>10692</v>
       </c>
       <c r="Y12">
-        <v>22.064775000000001</v>
+        <v>22.855575999999999</v>
       </c>
       <c r="Z12">
-        <v>82954</v>
+        <v>80109</v>
       </c>
       <c r="AA12">
-        <v>35.681579999999997</v>
+        <v>36.397148000000001</v>
       </c>
       <c r="AB12">
-        <v>171164</v>
+        <v>156566</v>
       </c>
       <c r="AC12">
-        <v>42.655025000000002</v>
+        <v>42.837276000000003</v>
       </c>
       <c r="AE12">
-        <v>11342</v>
+        <v>4688</v>
       </c>
       <c r="AF12">
-        <v>21.929424000000001</v>
+        <v>20.950355999999999</v>
       </c>
       <c r="AG12">
-        <v>82331</v>
+        <v>171242</v>
       </c>
       <c r="AH12">
-        <v>43.398173999999997</v>
+        <v>46.728625999999998</v>
       </c>
       <c r="AI12">
-        <v>168112</v>
+        <v>154956</v>
       </c>
       <c r="AJ12">
-        <v>48.149951999999999</v>
+        <v>48.169704000000003</v>
       </c>
       <c r="AL12">
-        <v>11342</v>
+        <v>46252</v>
       </c>
       <c r="AM12">
-        <v>21.929424000000001</v>
+        <v>31.06287</v>
       </c>
       <c r="AN12">
-        <v>81173</v>
+        <v>95411</v>
       </c>
       <c r="AO12">
-        <v>42.372535999999997</v>
+        <v>43.653193999999999</v>
       </c>
       <c r="AP12">
-        <v>178317</v>
+        <v>175040</v>
       </c>
       <c r="AQ12">
-        <v>48.076309000000002</v>
+        <v>48.108111999999998</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -4867,118 +4866,118 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>119960</v>
+        <v>123833</v>
       </c>
       <c r="D13">
         <v>45.465401</v>
       </c>
       <c r="E13">
-        <v>89836</v>
+        <v>68676</v>
       </c>
       <c r="F13">
         <v>41.931598999999999</v>
       </c>
       <c r="G13">
-        <v>54561</v>
+        <v>39795</v>
       </c>
       <c r="H13">
         <v>39.517513000000001</v>
       </c>
       <c r="I13">
-        <v>40053</v>
+        <v>26589</v>
       </c>
       <c r="J13">
         <v>37.168762000000001</v>
       </c>
       <c r="K13">
-        <v>30320</v>
+        <v>21712</v>
       </c>
       <c r="L13">
         <v>34.656975000000003</v>
       </c>
       <c r="M13">
-        <v>23998</v>
+        <v>20938</v>
       </c>
       <c r="N13">
         <v>31.649342999999998</v>
       </c>
       <c r="O13">
-        <v>22708</v>
+        <v>21370</v>
       </c>
       <c r="P13">
         <v>28.745352</v>
       </c>
       <c r="Q13">
-        <v>23668</v>
+        <v>22012</v>
       </c>
       <c r="R13">
         <v>26.54487</v>
       </c>
       <c r="S13">
-        <v>5302</v>
+        <v>3288</v>
       </c>
       <c r="T13">
         <v>21.784707999999998</v>
       </c>
       <c r="U13">
-        <v>2687</v>
+        <v>2349</v>
       </c>
       <c r="V13">
         <v>19.770126000000001</v>
       </c>
       <c r="X13">
-        <v>11965</v>
+        <v>10178</v>
       </c>
       <c r="Y13">
-        <v>22.267133999999999</v>
+        <v>22.94022</v>
       </c>
       <c r="Z13">
-        <v>78899</v>
+        <v>84530</v>
       </c>
       <c r="AA13">
-        <v>36.381531000000003</v>
+        <v>37.539963</v>
       </c>
       <c r="AB13">
-        <v>156934</v>
+        <v>134517</v>
       </c>
       <c r="AC13">
-        <v>42.909153000000003</v>
+        <v>42.941769000000001</v>
       </c>
       <c r="AE13">
-        <v>11559</v>
+        <v>4067</v>
       </c>
       <c r="AF13">
-        <v>22.00441</v>
+        <v>20.810082999999999</v>
       </c>
       <c r="AG13">
-        <v>29879</v>
+        <v>9586</v>
       </c>
       <c r="AH13">
-        <v>43.061348000000002</v>
+        <v>45.752555999999998</v>
       </c>
       <c r="AI13">
-        <v>167428</v>
+        <v>153379</v>
       </c>
       <c r="AJ13">
-        <v>48.157443999999998</v>
+        <v>48.172642000000003</v>
       </c>
       <c r="AL13">
-        <v>11559</v>
+        <v>46454</v>
       </c>
       <c r="AM13">
-        <v>22.00441</v>
+        <v>27.420801000000001</v>
       </c>
       <c r="AN13">
-        <v>68635</v>
+        <v>111206</v>
       </c>
       <c r="AO13">
-        <v>42.893104999999998</v>
+        <v>44.219292000000003</v>
       </c>
       <c r="AP13">
-        <v>170728</v>
+        <v>167471</v>
       </c>
       <c r="AQ13">
-        <v>48.119762000000001</v>
+        <v>48.141396</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -4986,55 +4985,55 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>116885</v>
+        <v>120838</v>
       </c>
       <c r="D14">
         <v>45.488864999999997</v>
       </c>
       <c r="E14">
-        <v>85791</v>
+        <v>64617</v>
       </c>
       <c r="F14">
         <v>41.950519999999997</v>
       </c>
       <c r="G14">
-        <v>53389</v>
+        <v>36861</v>
       </c>
       <c r="H14">
         <v>39.589092000000001</v>
       </c>
       <c r="I14">
-        <v>39462</v>
+        <v>25648</v>
       </c>
       <c r="J14">
         <v>37.284050000000001</v>
       </c>
       <c r="K14">
-        <v>30151</v>
+        <v>20885</v>
       </c>
       <c r="L14">
         <v>34.789318000000002</v>
       </c>
       <c r="M14">
-        <v>23232</v>
+        <v>20882</v>
       </c>
       <c r="N14">
         <v>31.815526999999999</v>
       </c>
       <c r="O14">
-        <v>21481</v>
+        <v>21131</v>
       </c>
       <c r="P14">
         <v>28.976171000000001</v>
       </c>
       <c r="Q14">
-        <v>23298</v>
+        <v>21964</v>
       </c>
       <c r="R14">
         <v>26.767662000000001</v>
       </c>
       <c r="S14">
-        <v>4798</v>
+        <v>3076</v>
       </c>
       <c r="T14">
         <v>21.757646999999999</v>
@@ -5046,58 +5045,58 @@
         <v>19.779015999999999</v>
       </c>
       <c r="X14">
-        <v>9523</v>
+        <v>10251</v>
       </c>
       <c r="Y14">
-        <v>22.283674000000001</v>
+        <v>22.989248</v>
       </c>
       <c r="Z14">
-        <v>77323</v>
+        <v>71389</v>
       </c>
       <c r="AA14">
-        <v>36.802371999999998</v>
+        <v>37.973083000000003</v>
       </c>
       <c r="AB14">
-        <v>144270</v>
+        <v>123429</v>
       </c>
       <c r="AC14">
-        <v>42.972408000000001</v>
+        <v>42.982410000000002</v>
       </c>
       <c r="AE14">
-        <v>11342</v>
+        <v>3968</v>
       </c>
       <c r="AF14">
-        <v>21.959574</v>
+        <v>20.824532999999999</v>
       </c>
       <c r="AG14">
-        <v>121636</v>
+        <v>173030</v>
       </c>
       <c r="AH14">
-        <v>44.530689000000002</v>
+        <v>47.768062999999998</v>
       </c>
       <c r="AI14">
-        <v>162264</v>
+        <v>149806</v>
       </c>
       <c r="AJ14">
-        <v>48.190978999999999</v>
+        <v>48.196368999999997</v>
       </c>
       <c r="AL14">
-        <v>11342</v>
+        <v>25788</v>
       </c>
       <c r="AM14">
-        <v>21.959574</v>
+        <v>30.907675000000001</v>
       </c>
       <c r="AN14">
-        <v>75102</v>
+        <v>149927</v>
       </c>
       <c r="AO14">
-        <v>43.424343</v>
+        <v>45.981780999999998</v>
       </c>
       <c r="AP14">
-        <v>163487</v>
+        <v>163077</v>
       </c>
       <c r="AQ14">
-        <v>48.160075999999997</v>
+        <v>48.171474000000003</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
@@ -5105,55 +5104,55 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>116465</v>
+        <v>120368</v>
       </c>
       <c r="D15">
         <v>45.485064999999999</v>
       </c>
       <c r="E15">
-        <v>86573</v>
+        <v>65401</v>
       </c>
       <c r="F15">
         <v>41.954540000000001</v>
       </c>
       <c r="G15">
-        <v>52701</v>
+        <v>35859</v>
       </c>
       <c r="H15">
         <v>39.605823999999998</v>
       </c>
       <c r="I15">
-        <v>37070</v>
+        <v>24636</v>
       </c>
       <c r="J15">
         <v>37.350613000000003</v>
       </c>
       <c r="K15">
-        <v>29050</v>
+        <v>19768</v>
       </c>
       <c r="L15">
         <v>34.867274999999999</v>
       </c>
       <c r="M15">
-        <v>23427</v>
+        <v>20115</v>
       </c>
       <c r="N15">
         <v>31.923922999999998</v>
       </c>
       <c r="O15">
-        <v>21329</v>
+        <v>20979</v>
       </c>
       <c r="P15">
         <v>29.134045</v>
       </c>
       <c r="Q15">
-        <v>23545</v>
+        <v>21885</v>
       </c>
       <c r="R15">
         <v>26.997810000000001</v>
       </c>
       <c r="S15">
-        <v>3630</v>
+        <v>2602</v>
       </c>
       <c r="T15">
         <v>21.717887999999999</v>
@@ -5165,58 +5164,58 @@
         <v>19.757010000000001</v>
       </c>
       <c r="X15">
-        <v>11566</v>
+        <v>11263</v>
       </c>
       <c r="Y15">
-        <v>22.356574999999999</v>
+        <v>22.931618</v>
       </c>
       <c r="Z15">
-        <v>77122</v>
+        <v>63628</v>
       </c>
       <c r="AA15">
-        <v>37.012076999999998</v>
+        <v>38.185809999999996</v>
       </c>
       <c r="AB15">
-        <v>136890</v>
+        <v>120387</v>
       </c>
       <c r="AC15">
-        <v>42.982033000000001</v>
+        <v>43.014172000000002</v>
       </c>
       <c r="AE15">
-        <v>11386</v>
+        <v>4126</v>
       </c>
       <c r="AF15">
-        <v>22.026772000000001</v>
+        <v>20.931837000000002</v>
       </c>
       <c r="AG15">
-        <v>36603</v>
+        <v>9105</v>
       </c>
       <c r="AH15">
-        <v>44.044246999999999</v>
+        <v>46.636276000000002</v>
       </c>
       <c r="AI15">
-        <v>160099</v>
+        <v>148247</v>
       </c>
       <c r="AJ15">
-        <v>48.182819000000002</v>
+        <v>48.189197999999998</v>
       </c>
       <c r="AL15">
-        <v>11386</v>
+        <v>26176</v>
       </c>
       <c r="AM15">
-        <v>22.026772000000001</v>
+        <v>30.970231999999999</v>
       </c>
       <c r="AN15">
-        <v>111965</v>
+        <v>127159</v>
       </c>
       <c r="AO15">
-        <v>43.893970000000003</v>
+        <v>45.824855999999997</v>
       </c>
       <c r="AP15">
-        <v>161717</v>
+        <v>159974</v>
       </c>
       <c r="AQ15">
-        <v>48.153824</v>
+        <v>48.160851000000001</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -5224,115 +5223,115 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>514895</v>
+        <v>536977</v>
       </c>
       <c r="D16">
         <v>44.636135000000003</v>
       </c>
       <c r="E16">
-        <v>415869</v>
+        <v>403631</v>
       </c>
       <c r="F16">
         <v>40.864711999999997</v>
       </c>
       <c r="G16">
-        <v>308653</v>
+        <v>295491</v>
       </c>
       <c r="H16">
         <v>37.691218999999997</v>
       </c>
       <c r="I16">
-        <v>219219</v>
+        <v>206661</v>
       </c>
       <c r="J16">
         <v>34.898707999999999</v>
       </c>
       <c r="K16">
-        <v>144110</v>
+        <v>130952</v>
       </c>
       <c r="L16">
         <v>32.077972000000003</v>
       </c>
       <c r="M16">
-        <v>94795</v>
+        <v>80369</v>
       </c>
       <c r="N16">
         <v>28.953115</v>
       </c>
       <c r="O16">
-        <v>62998</v>
+        <v>49810</v>
       </c>
       <c r="P16">
         <v>26.112266999999999</v>
       </c>
       <c r="Q16">
-        <v>48602</v>
+        <v>33438</v>
       </c>
       <c r="R16">
         <v>23.374855</v>
       </c>
       <c r="S16">
-        <v>9588</v>
+        <v>8566</v>
       </c>
       <c r="T16">
         <v>20.161086999999998</v>
       </c>
       <c r="U16">
-        <v>8417</v>
+        <v>6013</v>
       </c>
       <c r="V16">
         <v>17.922108000000001</v>
       </c>
       <c r="X16">
-        <v>12028</v>
+        <v>13519</v>
       </c>
       <c r="Y16">
-        <v>19.781756999999999</v>
+        <v>20.351206000000001</v>
       </c>
       <c r="Z16">
-        <v>84442</v>
+        <v>81849</v>
       </c>
       <c r="AA16">
-        <v>20.808565000000002</v>
+        <v>22.398741000000001</v>
       </c>
       <c r="AB16">
-        <v>234608</v>
+        <v>235521</v>
       </c>
       <c r="AC16">
-        <v>29.096529</v>
+        <v>24.470953000000002</v>
       </c>
       <c r="AE16">
-        <v>12233</v>
+        <v>9007</v>
       </c>
       <c r="AF16">
-        <v>17.986937999999999</v>
+        <v>19.345945</v>
       </c>
       <c r="AG16">
-        <v>83187</v>
+        <v>80256</v>
       </c>
       <c r="AH16">
-        <v>32.999721999999998</v>
+        <v>33.685768000000003</v>
       </c>
       <c r="AI16">
-        <v>238683</v>
+        <v>234785</v>
       </c>
       <c r="AJ16">
         <v>39.744903999999998</v>
       </c>
       <c r="AL16">
-        <v>12233</v>
+        <v>13787</v>
       </c>
       <c r="AM16">
-        <v>17.986937999999999</v>
+        <v>20.907108000000001</v>
       </c>
       <c r="AN16">
-        <v>83187</v>
+        <v>80256</v>
       </c>
       <c r="AO16">
-        <v>32.999721999999998</v>
+        <v>33.685768000000003</v>
       </c>
       <c r="AP16">
-        <v>238683</v>
+        <v>234785</v>
       </c>
       <c r="AQ16">
         <v>39.744903999999998</v>
@@ -5343,112 +5342,112 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>375728</v>
+        <v>386529</v>
       </c>
       <c r="D17">
         <v>44.759613000000002</v>
       </c>
       <c r="E17">
-        <v>288123</v>
+        <v>268365</v>
       </c>
       <c r="F17">
         <v>41.162177999999997</v>
       </c>
       <c r="G17">
-        <v>196191</v>
+        <v>177035</v>
       </c>
       <c r="H17">
         <v>38.171889999999998</v>
       </c>
       <c r="I17">
-        <v>122341</v>
+        <v>107319</v>
       </c>
       <c r="J17">
         <v>35.442383</v>
       </c>
       <c r="K17">
-        <v>68919</v>
+        <v>57991</v>
       </c>
       <c r="L17">
         <v>32.681305000000002</v>
       </c>
       <c r="M17">
-        <v>42117</v>
+        <v>35241</v>
       </c>
       <c r="N17">
         <v>29.788166</v>
       </c>
       <c r="O17">
-        <v>27688</v>
+        <v>26384</v>
       </c>
       <c r="P17">
         <v>27.029973999999999</v>
       </c>
       <c r="Q17">
-        <v>27687</v>
+        <v>24111</v>
       </c>
       <c r="R17">
         <v>24.617322999999999</v>
       </c>
       <c r="S17">
-        <v>7336</v>
+        <v>4362</v>
       </c>
       <c r="T17">
         <v>20.194383999999999</v>
       </c>
       <c r="U17">
-        <v>4416</v>
+        <v>3080</v>
       </c>
       <c r="V17">
         <v>18.194841</v>
       </c>
       <c r="X17">
-        <v>11276</v>
+        <v>13792</v>
       </c>
       <c r="Y17">
-        <v>20.325771</v>
+        <v>20.901845999999999</v>
       </c>
       <c r="Z17">
-        <v>81715</v>
+        <v>80043</v>
       </c>
       <c r="AA17">
-        <v>25.208953999999999</v>
+        <v>28.114082</v>
       </c>
       <c r="AB17">
-        <v>242663</v>
+        <v>241072</v>
       </c>
       <c r="AC17">
-        <v>38.327057000000003</v>
+        <v>38.710365000000003</v>
       </c>
       <c r="AE17">
-        <v>12365</v>
+        <v>4526</v>
       </c>
       <c r="AF17">
-        <v>19.018329999999999</v>
+        <v>19.577096999999998</v>
       </c>
       <c r="AG17">
-        <v>75219</v>
+        <v>81602</v>
       </c>
       <c r="AH17">
-        <v>34.283462999999998</v>
+        <v>35.147345999999999</v>
       </c>
       <c r="AI17">
-        <v>198212</v>
+        <v>176748</v>
       </c>
       <c r="AJ17">
         <v>40.328831000000001</v>
       </c>
       <c r="AL17">
-        <v>12365</v>
+        <v>4931</v>
       </c>
       <c r="AM17">
-        <v>19.018329999999999</v>
+        <v>21.281548999999998</v>
       </c>
       <c r="AN17">
-        <v>65418</v>
+        <v>66161</v>
       </c>
       <c r="AO17">
-        <v>34.054993000000003</v>
+        <v>34.245139999999999</v>
       </c>
       <c r="AP17">
         <v>245000</v>
@@ -5462,118 +5461,118 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>378916</v>
+        <v>390078</v>
       </c>
       <c r="D18">
         <v>44.802204000000003</v>
       </c>
       <c r="E18">
-        <v>289788</v>
+        <v>271204</v>
       </c>
       <c r="F18">
         <v>41.153579999999998</v>
       </c>
       <c r="G18">
-        <v>196363</v>
+        <v>176129</v>
       </c>
       <c r="H18">
         <v>38.118789999999997</v>
       </c>
       <c r="I18">
-        <v>116305</v>
+        <v>101849</v>
       </c>
       <c r="J18">
         <v>35.476542999999999</v>
       </c>
       <c r="K18">
-        <v>62691</v>
+        <v>55021</v>
       </c>
       <c r="L18">
         <v>32.752944999999997</v>
       </c>
       <c r="M18">
-        <v>37964</v>
+        <v>32744</v>
       </c>
       <c r="N18">
         <v>30.026389999999999</v>
       </c>
       <c r="O18">
-        <v>27499</v>
+        <v>24931</v>
       </c>
       <c r="P18">
         <v>27.312381999999999</v>
       </c>
       <c r="Q18">
-        <v>24926</v>
+        <v>23328</v>
       </c>
       <c r="R18">
         <v>25.164159999999999</v>
       </c>
       <c r="S18">
-        <v>3946</v>
+        <v>3284</v>
       </c>
       <c r="T18">
         <v>20.238609</v>
       </c>
       <c r="U18">
-        <v>4937</v>
+        <v>2557</v>
       </c>
       <c r="V18">
         <v>18.057779</v>
       </c>
       <c r="X18">
-        <v>11544</v>
+        <v>17039</v>
       </c>
       <c r="Y18">
-        <v>20.644192</v>
+        <v>20.986559</v>
       </c>
       <c r="Z18">
-        <v>84323</v>
+        <v>87522</v>
       </c>
       <c r="AA18">
-        <v>31.867751999999999</v>
+        <v>32.893360000000001</v>
       </c>
       <c r="AB18">
-        <v>237410</v>
+        <v>238766</v>
       </c>
       <c r="AC18">
-        <v>39.124831999999998</v>
+        <v>39.795001999999997</v>
       </c>
       <c r="AE18">
-        <v>11633</v>
+        <v>4128</v>
       </c>
       <c r="AF18">
-        <v>17.842775</v>
+        <v>19.617640999999999</v>
       </c>
       <c r="AG18">
-        <v>68519</v>
+        <v>50387</v>
       </c>
       <c r="AH18">
-        <v>34.402926999999998</v>
+        <v>34.445698</v>
       </c>
       <c r="AI18">
-        <v>196005</v>
+        <v>177442</v>
       </c>
       <c r="AJ18">
-        <v>39.779201999999998</v>
+        <v>39.944431000000002</v>
       </c>
       <c r="AL18">
-        <v>11633</v>
+        <v>21278</v>
       </c>
       <c r="AM18">
-        <v>17.842775</v>
+        <v>23.146947999999998</v>
       </c>
       <c r="AN18">
-        <v>61722</v>
+        <v>116220</v>
       </c>
       <c r="AO18">
-        <v>34.033225999999999</v>
+        <v>35.755825000000002</v>
       </c>
       <c r="AP18">
-        <v>254877</v>
+        <v>258666</v>
       </c>
       <c r="AQ18">
-        <v>41.285881000000003</v>
+        <v>41.410873000000002</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -5581,118 +5580,118 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>378064</v>
+        <v>388837</v>
       </c>
       <c r="D19">
         <v>44.849117</v>
       </c>
       <c r="E19">
-        <v>285994</v>
+        <v>267860</v>
       </c>
       <c r="F19">
         <v>41.169651000000002</v>
       </c>
       <c r="G19">
-        <v>191700</v>
+        <v>171948</v>
       </c>
       <c r="H19">
         <v>38.165610999999998</v>
       </c>
       <c r="I19">
-        <v>112679</v>
+        <v>99817</v>
       </c>
       <c r="J19">
         <v>35.541428000000003</v>
       </c>
       <c r="K19">
-        <v>62883</v>
+        <v>52107</v>
       </c>
       <c r="L19">
         <v>32.867942999999997</v>
       </c>
       <c r="M19">
-        <v>34753</v>
+        <v>31459</v>
       </c>
       <c r="N19">
         <v>30.072586000000001</v>
       </c>
       <c r="O19">
-        <v>27242</v>
+        <v>24624</v>
       </c>
       <c r="P19">
         <v>27.512781</v>
       </c>
       <c r="Q19">
-        <v>24041</v>
+        <v>23067</v>
       </c>
       <c r="R19">
         <v>25.356983</v>
       </c>
       <c r="S19">
-        <v>3816</v>
+        <v>3492</v>
       </c>
       <c r="T19">
         <v>20.210709000000001</v>
       </c>
       <c r="U19">
-        <v>4190</v>
+        <v>2482</v>
       </c>
       <c r="V19">
         <v>17.945454000000002</v>
       </c>
       <c r="X19">
-        <v>17600</v>
+        <v>12517</v>
       </c>
       <c r="Y19">
-        <v>20.80517</v>
+        <v>20.982441000000001</v>
       </c>
       <c r="Z19">
-        <v>81268</v>
+        <v>86674</v>
       </c>
       <c r="AA19">
-        <v>32.325004999999997</v>
+        <v>33.543633</v>
       </c>
       <c r="AB19">
-        <v>237798</v>
+        <v>238864</v>
       </c>
       <c r="AC19">
-        <v>39.259520999999999</v>
+        <v>39.997149999999998</v>
       </c>
       <c r="AE19">
-        <v>12260</v>
+        <v>3749</v>
       </c>
       <c r="AF19">
-        <v>17.986751999999999</v>
+        <v>19.52495</v>
       </c>
       <c r="AG19">
-        <v>53929</v>
+        <v>68314</v>
       </c>
       <c r="AH19">
-        <v>33.734946999999998</v>
+        <v>34.768410000000003</v>
       </c>
       <c r="AI19">
-        <v>190367</v>
+        <v>182015</v>
       </c>
       <c r="AJ19">
-        <v>39.727921000000002</v>
+        <v>39.985008000000001</v>
       </c>
       <c r="AL19">
-        <v>12260</v>
+        <v>46689</v>
       </c>
       <c r="AM19">
-        <v>17.986751999999999</v>
+        <v>27.073404</v>
       </c>
       <c r="AN19">
-        <v>58137</v>
+        <v>61621</v>
       </c>
       <c r="AO19">
-        <v>33.989097999999998</v>
+        <v>34.627974999999999</v>
       </c>
       <c r="AP19">
-        <v>249275</v>
+        <v>252797</v>
       </c>
       <c r="AQ19">
-        <v>41.246276999999999</v>
+        <v>41.428798999999998</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -5700,118 +5699,118 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>377307</v>
+        <v>388717</v>
       </c>
       <c r="D20">
         <v>44.868172000000001</v>
       </c>
       <c r="E20">
-        <v>287915</v>
+        <v>266781</v>
       </c>
       <c r="F20">
         <v>41.212378999999999</v>
       </c>
       <c r="G20">
-        <v>190601</v>
+        <v>170945</v>
       </c>
       <c r="H20">
         <v>38.142738000000001</v>
       </c>
       <c r="I20">
-        <v>116700</v>
+        <v>98488</v>
       </c>
       <c r="J20">
         <v>35.565033</v>
       </c>
       <c r="K20">
-        <v>60007</v>
+        <v>50277</v>
       </c>
       <c r="L20">
         <v>32.895245000000003</v>
       </c>
       <c r="M20">
-        <v>36733</v>
+        <v>30321</v>
       </c>
       <c r="N20">
         <v>30.181909999999998</v>
       </c>
       <c r="O20">
-        <v>26600</v>
+        <v>23968</v>
       </c>
       <c r="P20">
         <v>27.632757000000002</v>
       </c>
       <c r="Q20">
-        <v>23955</v>
+        <v>22975</v>
       </c>
       <c r="R20">
         <v>25.466819999999998</v>
       </c>
       <c r="S20">
-        <v>4090</v>
+        <v>3420</v>
       </c>
       <c r="T20">
         <v>20.174040000000002</v>
       </c>
       <c r="U20">
-        <v>3784</v>
+        <v>2402</v>
       </c>
       <c r="V20">
         <v>17.929542999999999</v>
       </c>
       <c r="X20">
-        <v>16540</v>
+        <v>17672</v>
       </c>
       <c r="Y20">
-        <v>20.688877000000002</v>
+        <v>21.081467</v>
       </c>
       <c r="Z20">
-        <v>83736</v>
+        <v>85832</v>
       </c>
       <c r="AA20">
-        <v>32.867843999999998</v>
+        <v>33.859313999999998</v>
       </c>
       <c r="AB20">
-        <v>241014</v>
+        <v>236647</v>
       </c>
       <c r="AC20">
-        <v>39.657803000000001</v>
+        <v>39.823185000000002</v>
       </c>
       <c r="AE20">
-        <v>12106</v>
+        <v>3701</v>
       </c>
       <c r="AF20">
-        <v>17.934822</v>
+        <v>19.445426999999999</v>
       </c>
       <c r="AG20">
-        <v>67031</v>
+        <v>48063</v>
       </c>
       <c r="AH20">
-        <v>34.009940999999998</v>
+        <v>34.297500999999997</v>
       </c>
       <c r="AI20">
-        <v>188336</v>
+        <v>175357</v>
       </c>
       <c r="AJ20">
-        <v>39.487659000000001</v>
+        <v>39.795254</v>
       </c>
       <c r="AL20">
-        <v>12106</v>
+        <v>4829</v>
       </c>
       <c r="AM20">
-        <v>17.934822</v>
+        <v>22.566718999999999</v>
       </c>
       <c r="AN20">
-        <v>59117</v>
+        <v>109438</v>
       </c>
       <c r="AO20">
-        <v>33.959816000000004</v>
+        <v>35.889091000000001</v>
       </c>
       <c r="AP20">
-        <v>250904</v>
+        <v>253465</v>
       </c>
       <c r="AQ20">
-        <v>41.207904999999997</v>
+        <v>41.331974000000002</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -5819,118 +5818,118 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>383629</v>
+        <v>395842</v>
       </c>
       <c r="D21">
         <v>44.837341000000002</v>
       </c>
       <c r="E21">
-        <v>292398</v>
+        <v>272204</v>
       </c>
       <c r="F21">
         <v>41.170012999999997</v>
       </c>
       <c r="G21">
-        <v>197085</v>
+        <v>175571</v>
       </c>
       <c r="H21">
         <v>38.146819999999998</v>
       </c>
       <c r="I21">
-        <v>117471</v>
+        <v>100435</v>
       </c>
       <c r="J21">
         <v>35.543807999999999</v>
       </c>
       <c r="K21">
-        <v>64820</v>
+        <v>51230</v>
       </c>
       <c r="L21">
         <v>32.828887999999999</v>
       </c>
       <c r="M21">
-        <v>36031</v>
+        <v>31409</v>
       </c>
       <c r="N21">
         <v>30.199451</v>
       </c>
       <c r="O21">
-        <v>26230</v>
+        <v>24606</v>
       </c>
       <c r="P21">
         <v>27.68655</v>
       </c>
       <c r="Q21">
-        <v>25271</v>
+        <v>23009</v>
       </c>
       <c r="R21">
         <v>25.521985999999998</v>
       </c>
       <c r="S21">
-        <v>3377</v>
+        <v>3047</v>
       </c>
       <c r="T21">
         <v>20.080168</v>
       </c>
       <c r="U21">
-        <v>3482</v>
+        <v>2448</v>
       </c>
       <c r="V21">
         <v>17.885570999999999</v>
       </c>
       <c r="X21">
-        <v>16372</v>
+        <v>14971</v>
       </c>
       <c r="Y21">
-        <v>20.813203999999999</v>
+        <v>20.932179999999999</v>
       </c>
       <c r="Z21">
-        <v>86368</v>
+        <v>85942</v>
       </c>
       <c r="AA21">
-        <v>33.129677000000001</v>
+        <v>33.948051</v>
       </c>
       <c r="AB21">
-        <v>238698</v>
+        <v>241365</v>
       </c>
       <c r="AC21">
-        <v>39.31559</v>
+        <v>39.930992000000003</v>
       </c>
       <c r="AE21">
-        <v>12073</v>
+        <v>4062</v>
       </c>
       <c r="AF21">
-        <v>17.749901000000001</v>
+        <v>19.542411999999999</v>
       </c>
       <c r="AG21">
-        <v>69067</v>
+        <v>73447</v>
       </c>
       <c r="AH21">
-        <v>34.118617999999998</v>
+        <v>34.784973000000001</v>
       </c>
       <c r="AI21">
-        <v>199786</v>
+        <v>182117</v>
       </c>
       <c r="AJ21">
-        <v>39.504879000000003</v>
+        <v>39.643700000000003</v>
       </c>
       <c r="AL21">
-        <v>12073</v>
+        <v>6572</v>
       </c>
       <c r="AM21">
-        <v>17.749901000000001</v>
+        <v>22.146488000000002</v>
       </c>
       <c r="AN21">
-        <v>60714</v>
+        <v>65151</v>
       </c>
       <c r="AO21">
-        <v>33.829993999999999</v>
+        <v>34.705855999999997</v>
       </c>
       <c r="AP21">
-        <v>186190</v>
+        <v>260398</v>
       </c>
       <c r="AQ21">
-        <v>39.451557000000001</v>
+        <v>41.053719000000001</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -5938,124 +5937,124 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>389358</v>
+        <v>402088</v>
       </c>
       <c r="D22">
         <v>44.853423999999997</v>
       </c>
       <c r="E22">
-        <v>297788</v>
+        <v>277488</v>
       </c>
       <c r="F22">
         <v>41.090698000000003</v>
       </c>
       <c r="G22">
-        <v>199080</v>
+        <v>180556</v>
       </c>
       <c r="H22">
         <v>38.085552</v>
       </c>
       <c r="I22">
-        <v>120901</v>
+        <v>104741</v>
       </c>
       <c r="J22">
         <v>35.510756999999998</v>
       </c>
       <c r="K22">
-        <v>66290</v>
+        <v>56700</v>
       </c>
       <c r="L22">
         <v>32.771777999999998</v>
       </c>
       <c r="M22">
-        <v>37671</v>
+        <v>32453</v>
       </c>
       <c r="N22">
         <v>30.109991000000001</v>
       </c>
       <c r="O22">
-        <v>26617</v>
+        <v>24373</v>
       </c>
       <c r="P22">
         <v>27.633261000000001</v>
       </c>
       <c r="Q22">
-        <v>24372</v>
+        <v>22726</v>
       </c>
       <c r="R22">
         <v>25.539883</v>
       </c>
       <c r="S22">
-        <v>4202</v>
+        <v>3874</v>
       </c>
       <c r="T22">
         <v>20.014095000000001</v>
       </c>
       <c r="U22">
-        <v>3505</v>
+        <v>2463</v>
       </c>
       <c r="V22">
         <v>17.851982</v>
       </c>
       <c r="X22">
-        <v>16944</v>
+        <v>12176</v>
       </c>
       <c r="Y22">
-        <v>20.881637999999999</v>
+        <v>20.835909000000001</v>
       </c>
       <c r="Z22">
-        <v>83635</v>
+        <v>84700</v>
       </c>
       <c r="AA22">
-        <v>33.080672999999997</v>
+        <v>33.804161000000001</v>
       </c>
       <c r="AB22">
-        <v>238614</v>
+        <v>238950</v>
       </c>
       <c r="AC22">
-        <v>39.083354999999997</v>
+        <v>39.799357999999998</v>
       </c>
       <c r="AE22">
-        <v>11911</v>
+        <v>15096</v>
       </c>
       <c r="AF22">
-        <v>17.778262999999999</v>
+        <v>20.542411999999999</v>
       </c>
       <c r="AG22">
-        <v>49589</v>
+        <v>48731</v>
       </c>
       <c r="AH22">
-        <v>32.855812</v>
+        <v>33.820945999999999</v>
       </c>
       <c r="AI22">
-        <v>185454</v>
+        <v>183388</v>
       </c>
       <c r="AJ22">
-        <v>38.823020999999997</v>
+        <v>39.375652000000002</v>
       </c>
       <c r="AL22">
-        <v>11911</v>
+        <v>33266</v>
       </c>
       <c r="AM22">
-        <v>17.778262999999999</v>
+        <v>25.844750999999999</v>
       </c>
       <c r="AN22">
-        <v>64744</v>
+        <v>116552</v>
       </c>
       <c r="AO22">
-        <v>33.647841999999997</v>
+        <v>35.694561</v>
       </c>
       <c r="AP22">
-        <v>192874</v>
+        <v>272459</v>
       </c>
       <c r="AQ22">
-        <v>39.172237000000003</v>
+        <v>41.208824</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C23">
         <f>AVERAGE(C2:C22)</f>
-        <v>311008.38095238095</v>
+        <v>320760.42857142858</v>
       </c>
       <c r="D23">
         <f>AVERAGE(D2:D22)</f>
@@ -6063,7 +6062,7 @@
       </c>
       <c r="E23">
         <f>AVERAGE(E2:E22)</f>
-        <v>237807</v>
+        <v>218843.95238095237</v>
       </c>
       <c r="F23">
         <f>AVERAGE(F2:F22)</f>
@@ -6071,7 +6070,7 @@
       </c>
       <c r="G23">
         <f t="shared" ref="G23:H23" si="0">AVERAGE(G2:G22)</f>
-        <v>160340.42857142858</v>
+        <v>142668.04761904763</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
@@ -6079,7 +6078,7 @@
       </c>
       <c r="I23">
         <f>AVERAGE(I2:I22)</f>
-        <v>100977.76190476191</v>
+        <v>86462.904761904763</v>
       </c>
       <c r="J23">
         <f t="shared" ref="J23:AQ23" si="1">AVERAGE(J2:J22)</f>
@@ -6087,7 +6086,7 @@
       </c>
       <c r="K23">
         <f t="shared" ref="K23" si="2">AVERAGE(K2:K22)</f>
-        <v>60010.095238095237</v>
+        <v>50207.523809523809</v>
       </c>
       <c r="L23">
         <f t="shared" ref="L23" si="3">AVERAGE(L2:L22)</f>
@@ -6095,7 +6094,7 @@
       </c>
       <c r="M23">
         <f t="shared" ref="M23" si="4">AVERAGE(M2:M22)</f>
-        <v>38448.571428571428</v>
+        <v>32853.619047619046</v>
       </c>
       <c r="N23">
         <f t="shared" ref="N23" si="5">AVERAGE(N2:N22)</f>
@@ -6103,7 +6102,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>29433.904761904763</v>
+        <v>25428.285714285714</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
@@ -6111,7 +6110,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ref="Q23" si="6">AVERAGE(Q2:Q22)</f>
-        <v>26885.428571428572</v>
+        <v>22510.380952380954</v>
       </c>
       <c r="R23">
         <f t="shared" ref="R23" si="7">AVERAGE(R2:R22)</f>
@@ -6119,7 +6118,7 @@
       </c>
       <c r="S23">
         <f t="shared" ref="S23" si="8">AVERAGE(S2:S22)</f>
-        <v>5659.666666666667</v>
+        <v>3990.3333333333335</v>
       </c>
       <c r="T23">
         <f t="shared" ref="T23" si="9">AVERAGE(T2:T22)</f>
@@ -6127,87 +6126,83 @@
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>4773.7619047619046</v>
+        <v>2858.1428571428573</v>
       </c>
       <c r="V23">
         <f t="shared" si="1"/>
         <v>19.136953714285717</v>
       </c>
-      <c r="W23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>13302.666666666666</v>
+        <v>13069.952380952382</v>
       </c>
       <c r="Y23">
         <f t="shared" si="1"/>
-        <v>21.517742619047617</v>
+        <v>22.444562857142859</v>
       </c>
       <c r="Z23">
         <f t="shared" si="1"/>
-        <v>81560.71428571429</v>
+        <v>81241.190476190473</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>32.426199238095236</v>
+        <v>33.481976809523815</v>
       </c>
       <c r="AB23">
         <f t="shared" si="1"/>
-        <v>220630.19047619047</v>
+        <v>215939.66666666666</v>
       </c>
       <c r="AC23">
         <f t="shared" si="1"/>
-        <v>39.548047523809529</v>
+        <v>39.701834571428577</v>
       </c>
       <c r="AE23">
         <f t="shared" si="1"/>
-        <v>11943.190476190477</v>
+        <v>11397.285714285714</v>
       </c>
       <c r="AF23">
         <f t="shared" si="1"/>
-        <v>19.713755666666671</v>
+        <v>22.444868666666668</v>
       </c>
       <c r="AG23">
         <f t="shared" si="1"/>
-        <v>68767.952380952382</v>
+        <v>72208.28571428571</v>
       </c>
       <c r="AH23">
         <f t="shared" si="1"/>
-        <v>36.651466285714285</v>
+        <v>37.901017904761908</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>190142.23809523811</v>
+        <v>180170.71428571429</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="1"/>
-        <v>42.458324285714284</v>
+        <v>42.643774666666665</v>
       </c>
       <c r="AL23">
         <f t="shared" si="1"/>
-        <v>12336.761904761905</v>
+        <v>22681.333333333332</v>
       </c>
       <c r="AM23">
         <f t="shared" si="1"/>
-        <v>19.96633404761905</v>
+        <v>25.976852476190473</v>
       </c>
       <c r="AN23">
         <f t="shared" si="1"/>
-        <v>72504.333333333328</v>
+        <v>93873.571428571435</v>
       </c>
       <c r="AO23">
         <f t="shared" si="1"/>
-        <v>36.766081714285718</v>
+        <v>37.893415476190476</v>
       </c>
       <c r="AP23">
         <f t="shared" si="1"/>
-        <v>205275.71428571429</v>
+        <v>218585.90476190476</v>
       </c>
       <c r="AQ23">
         <f t="shared" si="1"/>
-        <v>42.651430333333323</v>
+        <v>43.155873142857153</v>
       </c>
     </row>
   </sheetData>
@@ -6220,7 +6215,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.922676000000003</v>
+        <v>33.71217</v>
       </c>
       <c r="C2">
-        <v>31.998732</v>
+        <v>32.644416999999997</v>
       </c>
       <c r="D2">
         <v>33.625340000000001</v>
@@ -6258,10 +6253,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>34.446255000000001</v>
+        <v>34.977592000000001</v>
       </c>
       <c r="C3">
-        <v>33.66404</v>
+        <v>34.521335999999998</v>
       </c>
       <c r="D3">
         <v>34.232193000000002</v>
@@ -6272,10 +6267,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>34.772243000000003</v>
+        <v>35.601520999999998</v>
       </c>
       <c r="C4">
-        <v>34.269011999999996</v>
+        <v>34.437859000000003</v>
       </c>
       <c r="D4">
         <v>34.240195999999997</v>
@@ -6286,10 +6281,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.180957999999997</v>
+        <v>36.001018999999999</v>
       </c>
       <c r="C5">
-        <v>33.985416000000001</v>
+        <v>36.423527</v>
       </c>
       <c r="D5">
         <v>36.036437999999997</v>
@@ -6300,10 +6295,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.254860000000001</v>
+        <v>36.042568000000003</v>
       </c>
       <c r="C6">
-        <v>34.765396000000003</v>
+        <v>35.461620000000003</v>
       </c>
       <c r="D6">
         <v>34.891540999999997</v>
@@ -6314,10 +6309,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.075470000000003</v>
+        <v>35.805176000000003</v>
       </c>
       <c r="C7">
-        <v>34.167797</v>
+        <v>34.840857999999997</v>
       </c>
       <c r="D7">
         <v>36.121532000000002</v>
@@ -6328,10 +6323,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35.319267000000004</v>
+        <v>36.198402000000002</v>
       </c>
       <c r="C8">
-        <v>35.411414999999998</v>
+        <v>35.384262</v>
       </c>
       <c r="D8">
         <v>35.506691000000004</v>
@@ -6342,10 +6337,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.453419</v>
+        <v>22.215456</v>
       </c>
       <c r="C9">
-        <v>37.519649999999999</v>
+        <v>38.224742999999997</v>
       </c>
       <c r="D9">
         <v>37.519649999999999</v>
@@ -6356,10 +6351,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.630528999999999</v>
+        <v>29.546431999999999</v>
       </c>
       <c r="C10">
-        <v>39.888767000000001</v>
+        <v>41.793495</v>
       </c>
       <c r="D10">
         <v>39.839129999999997</v>
@@ -6370,10 +6365,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.728476999999998</v>
+        <v>34.363830999999998</v>
       </c>
       <c r="C11">
-        <v>42.570678999999998</v>
+        <v>44.353096000000001</v>
       </c>
       <c r="D11">
         <v>40.97636</v>
@@ -6384,10 +6379,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.681579999999997</v>
+        <v>36.397148000000001</v>
       </c>
       <c r="C12">
-        <v>43.398173999999997</v>
+        <v>46.728625999999998</v>
       </c>
       <c r="D12">
         <v>42.372535999999997</v>
@@ -6398,10 +6393,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.381531000000003</v>
+        <v>37.539963</v>
       </c>
       <c r="C13">
-        <v>43.061348000000002</v>
+        <v>45.752555999999998</v>
       </c>
       <c r="D13">
         <v>42.893104999999998</v>
@@ -6412,10 +6407,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.802371999999998</v>
+        <v>37.973083000000003</v>
       </c>
       <c r="C14">
-        <v>44.530689000000002</v>
+        <v>47.768062999999998</v>
       </c>
       <c r="D14">
         <v>43.424343</v>
@@ -6426,10 +6421,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.012076999999998</v>
+        <v>38.185809999999996</v>
       </c>
       <c r="C15">
-        <v>44.044246999999999</v>
+        <v>46.636276000000002</v>
       </c>
       <c r="D15">
         <v>43.893970000000003</v>
@@ -6440,10 +6435,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.808565000000002</v>
+        <v>22.398741000000001</v>
       </c>
       <c r="C16">
-        <v>32.999721999999998</v>
+        <v>33.685768000000003</v>
       </c>
       <c r="D16">
         <v>32.999721999999998</v>
@@ -6454,10 +6449,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.208953999999999</v>
+        <v>28.114082</v>
       </c>
       <c r="C17">
-        <v>34.283462999999998</v>
+        <v>35.147345999999999</v>
       </c>
       <c r="D17">
         <v>34.054993000000003</v>
@@ -6468,10 +6463,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.867751999999999</v>
+        <v>32.893360000000001</v>
       </c>
       <c r="C18">
-        <v>34.402926999999998</v>
+        <v>34.445698</v>
       </c>
       <c r="D18">
         <v>34.033225999999999</v>
@@ -6482,10 +6477,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.325004999999997</v>
+        <v>33.543633</v>
       </c>
       <c r="C19">
-        <v>33.734946999999998</v>
+        <v>34.768410000000003</v>
       </c>
       <c r="D19">
         <v>33.989097999999998</v>
@@ -6496,10 +6491,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.867843999999998</v>
+        <v>33.859313999999998</v>
       </c>
       <c r="C20">
-        <v>34.009940999999998</v>
+        <v>34.297500999999997</v>
       </c>
       <c r="D20">
         <v>33.959816000000004</v>
@@ -6510,10 +6505,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.129677000000001</v>
+        <v>33.948051</v>
       </c>
       <c r="C21">
-        <v>34.118617999999998</v>
+        <v>34.784973000000001</v>
       </c>
       <c r="D21">
         <v>33.829993999999999</v>
@@ -6524,10 +6519,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.080672999999997</v>
+        <v>33.804161000000001</v>
       </c>
       <c r="C22">
-        <v>32.855812</v>
+        <v>33.820945999999999</v>
       </c>
       <c r="D22">
         <v>33.647841999999997</v>
